--- a/asset/Preprocessing_step_4_with_metadata.xlsx
+++ b/asset/Preprocessing_step_4_with_metadata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uofwaterloo-my.sharepoint.com/personal/khusein_uwaterloo_ca/Documents/Content_analysis/Preprocessing_steps_spreadsheets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lakshaygoel/Documents/Summer2024/Maya_collaboration/MemoryMeetsComputation/asset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="8_{2240D26D-D067-47B9-A2B4-4187C463E4A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{999D57B7-F6C8-443C-9280-2E223BEB9A38}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF7BE615-8538-5642-8313-C78C87E5759B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="11460" xr2:uid="{1EBBCF65-93E1-2542-B8C9-5E5BF6B65D32}"/>
+    <workbookView xWindow="4340" yWindow="500" windowWidth="24460" windowHeight="16080" xr2:uid="{1EBBCF65-93E1-2542-B8C9-5E5BF6B65D32}"/>
   </bookViews>
   <sheets>
     <sheet name="dataset2 - ml" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2890" uniqueCount="728">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2885" uniqueCount="727">
   <si>
     <t>doc_id</t>
   </si>
@@ -1929,9 +1929,6 @@
   </si>
   <si>
     <t>when i hear this song all i can remember is this tv show never have i ever and watching it while laying in my couch late at night</t>
-  </si>
-  <si>
-    <t>I remember driving in my car on the way to work in grade 12 listening to that song I dont have much emotion associated with that memory</t>
   </si>
   <si>
     <t>prompt</t>
@@ -3081,15 +3078,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E236E22-7FAC-F744-9C48-E3BFC0DA908A}">
-  <dimension ref="A1:J577"/>
+  <dimension ref="A1:J576"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
+    <sheetView tabSelected="1" topLeftCell="A561" workbookViewId="0">
+      <selection activeCell="A577" sqref="A577:XFD577"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.8"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.8">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3118,10 +3115,10 @@
         <v>8</v>
       </c>
       <c r="J1" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.8">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>9</v>
       </c>
@@ -3150,10 +3147,10 @@
         <v>70</v>
       </c>
       <c r="J2" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.8">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>43</v>
       </c>
@@ -3182,10 +3179,10 @@
         <v>2</v>
       </c>
       <c r="J3" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.8">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>80</v>
       </c>
@@ -3214,10 +3211,10 @@
         <v>47</v>
       </c>
       <c r="J4" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.8">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>41</v>
       </c>
@@ -3246,10 +3243,10 @@
         <v>10</v>
       </c>
       <c r="J5" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.8">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>32</v>
       </c>
@@ -3278,10 +3275,10 @@
         <v>42</v>
       </c>
       <c r="J6" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.8">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>84</v>
       </c>
@@ -3310,10 +3307,10 @@
         <v>60</v>
       </c>
       <c r="J7" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.8">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>23</v>
       </c>
@@ -3342,10 +3339,10 @@
         <v>78</v>
       </c>
       <c r="J8" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.8">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>20</v>
       </c>
@@ -3374,10 +3371,10 @@
         <v>58</v>
       </c>
       <c r="J9" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.8">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>55</v>
       </c>
@@ -3406,10 +3403,10 @@
         <v>61</v>
       </c>
       <c r="J10" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.8">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>86</v>
       </c>
@@ -3438,10 +3435,10 @@
         <v>59</v>
       </c>
       <c r="J11" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.8">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>51</v>
       </c>
@@ -3470,10 +3467,10 @@
         <v>37</v>
       </c>
       <c r="J12" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.8">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>79</v>
       </c>
@@ -3502,10 +3499,10 @@
         <v>45</v>
       </c>
       <c r="J13" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.8">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>92</v>
       </c>
@@ -3534,10 +3531,10 @@
         <v>20</v>
       </c>
       <c r="J14" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.8">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>49</v>
       </c>
@@ -3566,10 +3563,10 @@
         <v>61</v>
       </c>
       <c r="J15" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.8">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>4</v>
       </c>
@@ -3598,10 +3595,10 @@
         <v>17</v>
       </c>
       <c r="J16" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.8">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>1</v>
       </c>
@@ -3630,10 +3627,10 @@
         <v>29</v>
       </c>
       <c r="J17" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.8">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>2</v>
       </c>
@@ -3662,10 +3659,10 @@
         <v>8</v>
       </c>
       <c r="J18" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.8">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>5</v>
       </c>
@@ -3694,10 +3691,10 @@
         <v>29</v>
       </c>
       <c r="J19" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.8">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>6</v>
       </c>
@@ -3726,10 +3723,10 @@
         <v>39</v>
       </c>
       <c r="J20" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.8">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>7</v>
       </c>
@@ -3758,10 +3755,10 @@
         <v>53</v>
       </c>
       <c r="J21" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.8">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>8</v>
       </c>
@@ -3790,10 +3787,10 @@
         <v>59</v>
       </c>
       <c r="J22" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.8">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>14</v>
       </c>
@@ -3822,10 +3819,10 @@
         <v>17</v>
       </c>
       <c r="J23" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.8">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>15</v>
       </c>
@@ -3854,10 +3851,10 @@
         <v>62</v>
       </c>
       <c r="J24" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.8">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>16</v>
       </c>
@@ -3886,10 +3883,10 @@
         <v>52</v>
       </c>
       <c r="J25" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.8">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>17</v>
       </c>
@@ -3918,10 +3915,10 @@
         <v>22</v>
       </c>
       <c r="J26" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.8">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>22</v>
       </c>
@@ -3950,10 +3947,10 @@
         <v>47</v>
       </c>
       <c r="J27" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.8">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>24</v>
       </c>
@@ -3982,10 +3979,10 @@
         <v>53</v>
       </c>
       <c r="J28" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.8">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>26</v>
       </c>
@@ -4014,10 +4011,10 @@
         <v>35</v>
       </c>
       <c r="J29" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.8">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>28</v>
       </c>
@@ -4046,10 +4043,10 @@
         <v>21</v>
       </c>
       <c r="J30" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.8">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>29</v>
       </c>
@@ -4078,10 +4075,10 @@
         <v>79</v>
       </c>
       <c r="J31" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.8">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>30</v>
       </c>
@@ -4110,10 +4107,10 @@
         <v>69</v>
       </c>
       <c r="J32" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.8">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>31</v>
       </c>
@@ -4142,10 +4139,10 @@
         <v>60</v>
       </c>
       <c r="J33" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.8">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>33</v>
       </c>
@@ -4174,10 +4171,10 @@
         <v>55</v>
       </c>
       <c r="J34" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.8">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>34</v>
       </c>
@@ -4206,10 +4203,10 @@
         <v>77</v>
       </c>
       <c r="J35" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.8">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>35</v>
       </c>
@@ -4238,10 +4235,10 @@
         <v>51</v>
       </c>
       <c r="J36" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.8">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>36</v>
       </c>
@@ -4270,10 +4267,10 @@
         <v>55</v>
       </c>
       <c r="J37" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.8">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>37</v>
       </c>
@@ -4302,10 +4299,10 @@
         <v>37</v>
       </c>
       <c r="J38" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.8">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>38</v>
       </c>
@@ -4334,10 +4331,10 @@
         <v>79</v>
       </c>
       <c r="J39" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.8">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>39</v>
       </c>
@@ -4366,10 +4363,10 @@
         <v>69</v>
       </c>
       <c r="J40" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.8">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>44</v>
       </c>
@@ -4398,10 +4395,10 @@
         <v>5</v>
       </c>
       <c r="J41" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.8">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>45</v>
       </c>
@@ -4430,10 +4427,10 @@
         <v>2</v>
       </c>
       <c r="J42" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.8">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>46</v>
       </c>
@@ -4462,10 +4459,10 @@
         <v>1</v>
       </c>
       <c r="J43" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.8">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>47</v>
       </c>
@@ -4494,10 +4491,10 @@
         <v>14</v>
       </c>
       <c r="J44" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.8">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>48</v>
       </c>
@@ -4526,10 +4523,10 @@
         <v>60</v>
       </c>
       <c r="J45" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.8">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>50</v>
       </c>
@@ -4558,10 +4555,10 @@
         <v>74</v>
       </c>
       <c r="J46" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.8">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>52</v>
       </c>
@@ -4590,10 +4587,10 @@
         <v>51</v>
       </c>
       <c r="J47" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.8">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>53</v>
       </c>
@@ -4622,10 +4619,10 @@
         <v>51</v>
       </c>
       <c r="J48" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.8">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>54</v>
       </c>
@@ -4654,10 +4651,10 @@
         <v>31</v>
       </c>
       <c r="J49" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.8">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>56</v>
       </c>
@@ -4686,10 +4683,10 @@
         <v>74</v>
       </c>
       <c r="J50" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.8">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>57</v>
       </c>
@@ -4718,10 +4715,10 @@
         <v>4</v>
       </c>
       <c r="J51" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.8">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>58</v>
       </c>
@@ -4750,10 +4747,10 @@
         <v>8</v>
       </c>
       <c r="J52" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.8">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>59</v>
       </c>
@@ -4782,10 +4779,10 @@
         <v>34</v>
       </c>
       <c r="J53" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.8">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>60</v>
       </c>
@@ -4814,10 +4811,10 @@
         <v>55</v>
       </c>
       <c r="J54" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.8">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>61</v>
       </c>
@@ -4846,10 +4843,10 @@
         <v>13</v>
       </c>
       <c r="J55" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.8">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>64</v>
       </c>
@@ -4878,10 +4875,10 @@
         <v>9</v>
       </c>
       <c r="J56" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.8">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>65</v>
       </c>
@@ -4910,10 +4907,10 @@
         <v>31</v>
       </c>
       <c r="J57" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.8">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>66</v>
       </c>
@@ -4942,10 +4939,10 @@
         <v>79</v>
       </c>
       <c r="J58" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.8">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>67</v>
       </c>
@@ -4974,10 +4971,10 @@
         <v>18</v>
       </c>
       <c r="J59" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.8">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>70</v>
       </c>
@@ -5006,10 +5003,10 @@
         <v>30</v>
       </c>
       <c r="J60" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.8">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>71</v>
       </c>
@@ -5038,10 +5035,10 @@
         <v>49</v>
       </c>
       <c r="J61" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.8">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>72</v>
       </c>
@@ -5070,10 +5067,10 @@
         <v>31</v>
       </c>
       <c r="J62" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.8">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>73</v>
       </c>
@@ -5102,10 +5099,10 @@
         <v>22</v>
       </c>
       <c r="J63" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.8">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>74</v>
       </c>
@@ -5134,10 +5131,10 @@
         <v>20</v>
       </c>
       <c r="J64" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.8">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>75</v>
       </c>
@@ -5166,10 +5163,10 @@
         <v>55</v>
       </c>
       <c r="J65" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.8">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>76</v>
       </c>
@@ -5198,10 +5195,10 @@
         <v>78</v>
       </c>
       <c r="J66" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.8">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>77</v>
       </c>
@@ -5230,10 +5227,10 @@
         <v>65</v>
       </c>
       <c r="J67" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.8">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>78</v>
       </c>
@@ -5262,10 +5259,10 @@
         <v>75</v>
       </c>
       <c r="J68" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.8">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>81</v>
       </c>
@@ -5294,10 +5291,10 @@
         <v>45</v>
       </c>
       <c r="J69" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.8">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>82</v>
       </c>
@@ -5326,10 +5323,10 @@
         <v>24</v>
       </c>
       <c r="J70" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.8">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>83</v>
       </c>
@@ -5358,10 +5355,10 @@
         <v>2</v>
       </c>
       <c r="J71" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.8">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>85</v>
       </c>
@@ -5390,10 +5387,10 @@
         <v>6</v>
       </c>
       <c r="J72" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.8">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>87</v>
       </c>
@@ -5422,10 +5419,10 @@
         <v>60</v>
       </c>
       <c r="J73" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.8">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>88</v>
       </c>
@@ -5454,10 +5451,10 @@
         <v>29</v>
       </c>
       <c r="J74" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.8">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>90</v>
       </c>
@@ -5486,10 +5483,10 @@
         <v>20</v>
       </c>
       <c r="J75" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.8">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>91</v>
       </c>
@@ -5518,10 +5515,10 @@
         <v>27</v>
       </c>
       <c r="J76" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.8">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>115</v>
       </c>
@@ -5550,10 +5547,10 @@
         <v>78</v>
       </c>
       <c r="J77" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.8">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>186</v>
       </c>
@@ -5582,10 +5579,10 @@
         <v>36</v>
       </c>
       <c r="J78" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.8">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>188</v>
       </c>
@@ -5614,10 +5611,10 @@
         <v>44</v>
       </c>
       <c r="J79" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.8">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>189</v>
       </c>
@@ -5646,10 +5643,10 @@
         <v>52</v>
       </c>
       <c r="J80" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.8">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>192</v>
       </c>
@@ -5678,10 +5675,10 @@
         <v>70</v>
       </c>
       <c r="J81" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.8">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>193</v>
       </c>
@@ -5710,10 +5707,10 @@
         <v>19</v>
       </c>
       <c r="J82" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.8">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>194</v>
       </c>
@@ -5742,10 +5739,10 @@
         <v>55</v>
       </c>
       <c r="J83" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.8">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>196</v>
       </c>
@@ -5774,10 +5771,10 @@
         <v>20</v>
       </c>
       <c r="J84" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.8">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>197</v>
       </c>
@@ -5806,10 +5803,10 @@
         <v>68</v>
       </c>
       <c r="J85" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.8">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>198</v>
       </c>
@@ -5838,10 +5835,10 @@
         <v>5</v>
       </c>
       <c r="J86" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.8">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>199</v>
       </c>
@@ -5870,10 +5867,10 @@
         <v>17</v>
       </c>
       <c r="J87" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.8">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>201</v>
       </c>
@@ -5902,10 +5899,10 @@
         <v>37</v>
       </c>
       <c r="J88" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.8">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>202</v>
       </c>
@@ -5934,10 +5931,10 @@
         <v>2</v>
       </c>
       <c r="J89" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.8">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>203</v>
       </c>
@@ -5966,10 +5963,10 @@
         <v>2</v>
       </c>
       <c r="J90" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.8">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>204</v>
       </c>
@@ -5998,10 +5995,10 @@
         <v>22</v>
       </c>
       <c r="J91" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.8">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>205</v>
       </c>
@@ -6030,10 +6027,10 @@
         <v>26</v>
       </c>
       <c r="J92" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.8">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>206</v>
       </c>
@@ -6062,10 +6059,10 @@
         <v>42</v>
       </c>
       <c r="J93" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.8">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>207</v>
       </c>
@@ -6094,10 +6091,10 @@
         <v>42</v>
       </c>
       <c r="J94" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.8">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>208</v>
       </c>
@@ -6126,10 +6123,10 @@
         <v>70</v>
       </c>
       <c r="J95" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.8">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>210</v>
       </c>
@@ -6158,10 +6155,10 @@
         <v>72</v>
       </c>
       <c r="J96" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.8">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>211</v>
       </c>
@@ -6190,10 +6187,10 @@
         <v>77</v>
       </c>
       <c r="J97" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.8">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>212</v>
       </c>
@@ -6222,10 +6219,10 @@
         <v>9</v>
       </c>
       <c r="J98" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.8">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>213</v>
       </c>
@@ -6254,10 +6251,10 @@
         <v>47</v>
       </c>
       <c r="J99" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.8">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>214</v>
       </c>
@@ -6286,10 +6283,10 @@
         <v>51</v>
       </c>
       <c r="J100" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.8">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>215</v>
       </c>
@@ -6318,10 +6315,10 @@
         <v>51</v>
       </c>
       <c r="J101" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.8">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>216</v>
       </c>
@@ -6350,10 +6347,10 @@
         <v>76</v>
       </c>
       <c r="J102" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.8">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>217</v>
       </c>
@@ -6382,10 +6379,10 @@
         <v>8</v>
       </c>
       <c r="J103" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.8">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>218</v>
       </c>
@@ -6414,10 +6411,10 @@
         <v>1</v>
       </c>
       <c r="J104" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.8">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>222</v>
       </c>
@@ -6446,10 +6443,10 @@
         <v>29</v>
       </c>
       <c r="J105" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.8">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>224</v>
       </c>
@@ -6478,10 +6475,10 @@
         <v>10</v>
       </c>
       <c r="J106" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.8">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>226</v>
       </c>
@@ -6510,10 +6507,10 @@
         <v>6</v>
       </c>
       <c r="J107" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.8">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>228</v>
       </c>
@@ -6542,10 +6539,10 @@
         <v>59</v>
       </c>
       <c r="J108" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.8">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>229</v>
       </c>
@@ -6574,10 +6571,10 @@
         <v>79</v>
       </c>
       <c r="J109" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.8">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>231</v>
       </c>
@@ -6606,10 +6603,10 @@
         <v>17</v>
       </c>
       <c r="J110" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.8">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>232</v>
       </c>
@@ -6638,10 +6635,10 @@
         <v>73</v>
       </c>
       <c r="J111" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.8">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>233</v>
       </c>
@@ -6670,10 +6667,10 @@
         <v>74</v>
       </c>
       <c r="J112" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.8">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>235</v>
       </c>
@@ -6702,10 +6699,10 @@
         <v>3</v>
       </c>
       <c r="J113" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.8">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>236</v>
       </c>
@@ -6734,10 +6731,10 @@
         <v>17</v>
       </c>
       <c r="J114" t="s">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.8">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>237</v>
       </c>
@@ -6766,10 +6763,10 @@
         <v>21</v>
       </c>
       <c r="J115" t="s">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.8">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>238</v>
       </c>
@@ -6798,10 +6795,10 @@
         <v>25</v>
       </c>
       <c r="J116" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.8">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>239</v>
       </c>
@@ -6830,10 +6827,10 @@
         <v>29</v>
       </c>
       <c r="J117" t="s">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.8">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>241</v>
       </c>
@@ -6862,10 +6859,10 @@
         <v>45</v>
       </c>
       <c r="J118" t="s">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.8">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>242</v>
       </c>
@@ -6894,10 +6891,10 @@
         <v>57</v>
       </c>
       <c r="J119" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.8">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>244</v>
       </c>
@@ -6926,10 +6923,10 @@
         <v>65</v>
       </c>
       <c r="J120" t="s">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.8">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>245</v>
       </c>
@@ -6958,10 +6955,10 @@
         <v>69</v>
       </c>
       <c r="J121" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.8">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>247</v>
       </c>
@@ -6990,10 +6987,10 @@
         <v>77</v>
       </c>
       <c r="J122" t="s">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.8">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>249</v>
       </c>
@@ -7022,10 +7019,10 @@
         <v>9</v>
       </c>
       <c r="J123" t="s">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.8">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>250</v>
       </c>
@@ -7054,10 +7051,10 @@
         <v>6</v>
       </c>
       <c r="J124" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.8">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>251</v>
       </c>
@@ -7086,10 +7083,10 @@
         <v>70</v>
       </c>
       <c r="J125" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.8">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>253</v>
       </c>
@@ -7118,10 +7115,10 @@
         <v>71</v>
       </c>
       <c r="J126" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.8">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>257</v>
       </c>
@@ -7150,10 +7147,10 @@
         <v>48</v>
       </c>
       <c r="J127" t="s">
-        <v>696</v>
-      </c>
-    </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.8">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>258</v>
       </c>
@@ -7182,10 +7179,10 @@
         <v>64</v>
       </c>
       <c r="J128" t="s">
-        <v>696</v>
-      </c>
-    </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.8">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>259</v>
       </c>
@@ -7214,10 +7211,10 @@
         <v>68</v>
       </c>
       <c r="J129" t="s">
-        <v>696</v>
-      </c>
-    </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.8">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>260</v>
       </c>
@@ -7246,10 +7243,10 @@
         <v>76</v>
       </c>
       <c r="J130" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.8">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>261</v>
       </c>
@@ -7278,10 +7275,10 @@
         <v>8</v>
       </c>
       <c r="J131" t="s">
-        <v>696</v>
-      </c>
-    </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.8">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>262</v>
       </c>
@@ -7310,10 +7307,10 @@
         <v>1</v>
       </c>
       <c r="J132" t="s">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.8">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>264</v>
       </c>
@@ -7342,10 +7339,10 @@
         <v>65</v>
       </c>
       <c r="J133" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.8">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>266</v>
       </c>
@@ -7374,10 +7371,10 @@
         <v>77</v>
       </c>
       <c r="J134" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.8">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>267</v>
       </c>
@@ -7406,10 +7403,10 @@
         <v>59</v>
       </c>
       <c r="J135" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.8">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>268</v>
       </c>
@@ -7438,10 +7435,10 @@
         <v>44</v>
       </c>
       <c r="J136" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.8">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>270</v>
       </c>
@@ -7470,10 +7467,10 @@
         <v>64</v>
       </c>
       <c r="J137" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.8">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>271</v>
       </c>
@@ -7502,10 +7499,10 @@
         <v>17</v>
       </c>
       <c r="J138" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.8">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>272</v>
       </c>
@@ -7534,10 +7531,10 @@
         <v>61</v>
       </c>
       <c r="J139" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.8">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>275</v>
       </c>
@@ -7566,10 +7563,10 @@
         <v>70</v>
       </c>
       <c r="J140" t="s">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.8">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>277</v>
       </c>
@@ -7598,10 +7595,10 @@
         <v>59</v>
       </c>
       <c r="J141" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.8">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>278</v>
       </c>
@@ -7630,10 +7627,10 @@
         <v>79</v>
       </c>
       <c r="J142" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.8">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>281</v>
       </c>
@@ -7662,10 +7659,10 @@
         <v>8</v>
       </c>
       <c r="J143" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.8">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>282</v>
       </c>
@@ -7694,10 +7691,10 @@
         <v>5</v>
       </c>
       <c r="J144" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.8">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>284</v>
       </c>
@@ -7726,10 +7723,10 @@
         <v>73</v>
       </c>
       <c r="J145" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.8">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>287</v>
       </c>
@@ -7758,10 +7755,10 @@
         <v>66</v>
       </c>
       <c r="J146" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.8">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>288</v>
       </c>
@@ -7790,10 +7787,10 @@
         <v>11</v>
       </c>
       <c r="J147" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.8">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>291</v>
       </c>
@@ -7822,10 +7819,10 @@
         <v>40</v>
       </c>
       <c r="J148" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.8">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>293</v>
       </c>
@@ -7854,10 +7851,10 @@
         <v>8</v>
       </c>
       <c r="J149" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.8">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>294</v>
       </c>
@@ -7886,10 +7883,10 @@
         <v>21</v>
       </c>
       <c r="J150" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.8">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>295</v>
       </c>
@@ -7918,10 +7915,10 @@
         <v>53</v>
       </c>
       <c r="J151" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.8">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>296</v>
       </c>
@@ -7950,10 +7947,10 @@
         <v>58</v>
       </c>
       <c r="J152" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.8">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>298</v>
       </c>
@@ -7982,10 +7979,10 @@
         <v>35</v>
       </c>
       <c r="J153" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.8">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>299</v>
       </c>
@@ -8014,10 +8011,10 @@
         <v>59</v>
       </c>
       <c r="J154" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.8">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>300</v>
       </c>
@@ -8046,10 +8043,10 @@
         <v>63</v>
       </c>
       <c r="J155" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.8">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>302</v>
       </c>
@@ -8078,10 +8075,10 @@
         <v>71</v>
       </c>
       <c r="J156" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.8">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>303</v>
       </c>
@@ -8110,10 +8107,10 @@
         <v>4</v>
       </c>
       <c r="J157" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.8">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>304</v>
       </c>
@@ -8142,10 +8139,10 @@
         <v>24</v>
       </c>
       <c r="J158" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.8">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>306</v>
       </c>
@@ -8174,10 +8171,10 @@
         <v>32</v>
       </c>
       <c r="J159" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.8">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>307</v>
       </c>
@@ -8206,10 +8203,10 @@
         <v>40</v>
       </c>
       <c r="J160" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.8">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>308</v>
       </c>
@@ -8238,10 +8235,10 @@
         <v>44</v>
       </c>
       <c r="J161" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.8">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>309</v>
       </c>
@@ -8270,10 +8267,10 @@
         <v>44</v>
       </c>
       <c r="J162" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.8">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>312</v>
       </c>
@@ -8302,10 +8299,10 @@
         <v>13</v>
       </c>
       <c r="J163" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.8">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>313</v>
       </c>
@@ -8334,10 +8331,10 @@
         <v>17</v>
       </c>
       <c r="J164" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.8">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>314</v>
       </c>
@@ -8366,10 +8363,10 @@
         <v>73</v>
       </c>
       <c r="J165" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.8">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>315</v>
       </c>
@@ -8398,10 +8395,10 @@
         <v>10</v>
       </c>
       <c r="J166" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.8">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>316</v>
       </c>
@@ -8430,10 +8427,10 @@
         <v>30</v>
       </c>
       <c r="J167" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.8">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>318</v>
       </c>
@@ -8462,10 +8459,10 @@
         <v>66</v>
       </c>
       <c r="J168" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.8">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>319</v>
       </c>
@@ -8494,10 +8491,10 @@
         <v>70</v>
       </c>
       <c r="J169" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.8">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>320</v>
       </c>
@@ -8526,10 +8523,10 @@
         <v>23</v>
       </c>
       <c r="J170" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.8">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>321</v>
       </c>
@@ -8558,10 +8555,10 @@
         <v>52</v>
       </c>
       <c r="J171" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.8">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>322</v>
       </c>
@@ -8590,10 +8587,10 @@
         <v>64</v>
       </c>
       <c r="J172" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.8">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>323</v>
       </c>
@@ -8622,10 +8619,10 @@
         <v>3</v>
       </c>
       <c r="J173" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.8">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>325</v>
       </c>
@@ -8654,10 +8651,10 @@
         <v>25</v>
       </c>
       <c r="J174" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.8">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>327</v>
       </c>
@@ -8686,10 +8683,10 @@
         <v>41</v>
       </c>
       <c r="J175" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.8">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>328</v>
       </c>
@@ -8718,10 +8715,10 @@
         <v>49</v>
       </c>
       <c r="J176" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.8">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>329</v>
       </c>
@@ -8750,10 +8747,10 @@
         <v>65</v>
       </c>
       <c r="J177" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.8">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>330</v>
       </c>
@@ -8782,10 +8779,10 @@
         <v>22</v>
       </c>
       <c r="J178" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.8">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>331</v>
       </c>
@@ -8814,10 +8811,10 @@
         <v>42</v>
       </c>
       <c r="J179" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.8">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>332</v>
       </c>
@@ -8846,10 +8843,10 @@
         <v>70</v>
       </c>
       <c r="J180" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.8">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>335</v>
       </c>
@@ -8878,10 +8875,10 @@
         <v>40</v>
       </c>
       <c r="J181" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.8">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="182" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>336</v>
       </c>
@@ -8910,10 +8907,10 @@
         <v>44</v>
       </c>
       <c r="J182" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.8">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>337</v>
       </c>
@@ -8942,10 +8939,10 @@
         <v>48</v>
       </c>
       <c r="J183" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.8">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="184" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>338</v>
       </c>
@@ -8974,10 +8971,10 @@
         <v>64</v>
       </c>
       <c r="J184" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.8">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="185" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>339</v>
       </c>
@@ -9006,10 +9003,10 @@
         <v>64</v>
       </c>
       <c r="J185" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.8">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="186" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>341</v>
       </c>
@@ -9038,10 +9035,10 @@
         <v>13</v>
       </c>
       <c r="J186" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.8">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="187" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>344</v>
       </c>
@@ -9070,10 +9067,10 @@
         <v>49</v>
       </c>
       <c r="J187" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.8">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="188" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>346</v>
       </c>
@@ -9102,10 +9099,10 @@
         <v>22</v>
       </c>
       <c r="J188" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.8">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="189" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>347</v>
       </c>
@@ -9134,10 +9131,10 @@
         <v>46</v>
       </c>
       <c r="J189" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.8">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="190" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>348</v>
       </c>
@@ -9166,10 +9163,10 @@
         <v>50</v>
       </c>
       <c r="J190" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.8">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="191" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A191">
         <v>350</v>
       </c>
@@ -9198,10 +9195,10 @@
         <v>74</v>
       </c>
       <c r="J191" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="192" spans="1:10" x14ac:dyDescent="0.8">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="192" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A192">
         <v>353</v>
       </c>
@@ -9230,10 +9227,10 @@
         <v>35</v>
       </c>
       <c r="J192" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="193" spans="1:10" x14ac:dyDescent="0.8">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="193" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A193">
         <v>354</v>
       </c>
@@ -9262,10 +9259,10 @@
         <v>39</v>
       </c>
       <c r="J193" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="194" spans="1:10" x14ac:dyDescent="0.8">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="194" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A194">
         <v>358</v>
       </c>
@@ -9294,10 +9291,10 @@
         <v>56</v>
       </c>
       <c r="J194" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="195" spans="1:10" x14ac:dyDescent="0.8">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="195" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A195">
         <v>359</v>
       </c>
@@ -9326,10 +9323,10 @@
         <v>64</v>
       </c>
       <c r="J195" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.8">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="196" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A196">
         <v>360</v>
       </c>
@@ -9358,10 +9355,10 @@
         <v>5</v>
       </c>
       <c r="J196" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="197" spans="1:10" x14ac:dyDescent="0.8">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="197" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A197">
         <v>361</v>
       </c>
@@ -9390,10 +9387,10 @@
         <v>21</v>
       </c>
       <c r="J197" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="198" spans="1:10" x14ac:dyDescent="0.8">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="198" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A198">
         <v>363</v>
       </c>
@@ -9422,10 +9419,10 @@
         <v>49</v>
       </c>
       <c r="J198" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="199" spans="1:10" x14ac:dyDescent="0.8">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="199" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A199">
         <v>364</v>
       </c>
@@ -9454,10 +9451,10 @@
         <v>65</v>
       </c>
       <c r="J199" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="200" spans="1:10" x14ac:dyDescent="0.8">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="200" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A200">
         <v>365</v>
       </c>
@@ -9486,10 +9483,10 @@
         <v>66</v>
       </c>
       <c r="J200" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="201" spans="1:10" x14ac:dyDescent="0.8">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="201" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A201">
         <v>366</v>
       </c>
@@ -9518,10 +9515,10 @@
         <v>19</v>
       </c>
       <c r="J201" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="202" spans="1:10" x14ac:dyDescent="0.8">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="202" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A202">
         <v>368</v>
       </c>
@@ -9550,10 +9547,10 @@
         <v>35</v>
       </c>
       <c r="J202" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="203" spans="1:10" x14ac:dyDescent="0.8">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="203" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A203">
         <v>370</v>
       </c>
@@ -9582,10 +9579,10 @@
         <v>43</v>
       </c>
       <c r="J203" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="204" spans="1:10" x14ac:dyDescent="0.8">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="204" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A204">
         <v>371</v>
       </c>
@@ -9614,10 +9611,10 @@
         <v>51</v>
       </c>
       <c r="J204" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="205" spans="1:10" x14ac:dyDescent="0.8">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="205" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A205">
         <v>372</v>
       </c>
@@ -9646,10 +9643,10 @@
         <v>59</v>
       </c>
       <c r="J205" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="206" spans="1:10" x14ac:dyDescent="0.8">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="206" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A206">
         <v>373</v>
       </c>
@@ -9678,10 +9675,10 @@
         <v>63</v>
       </c>
       <c r="J206" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="207" spans="1:10" x14ac:dyDescent="0.8">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="207" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A207">
         <v>374</v>
       </c>
@@ -9710,10 +9707,10 @@
         <v>7</v>
       </c>
       <c r="J207" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="208" spans="1:10" x14ac:dyDescent="0.8">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="208" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A208">
         <v>375</v>
       </c>
@@ -9742,10 +9739,10 @@
         <v>71</v>
       </c>
       <c r="J208" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="209" spans="1:10" x14ac:dyDescent="0.8">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="209" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A209">
         <v>376</v>
       </c>
@@ -9774,10 +9771,10 @@
         <v>79</v>
       </c>
       <c r="J209" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="210" spans="1:10" x14ac:dyDescent="0.8">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="210" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A210">
         <v>377</v>
       </c>
@@ -9806,10 +9803,10 @@
         <v>28</v>
       </c>
       <c r="J210" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="211" spans="1:10" x14ac:dyDescent="0.8">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="211" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A211">
         <v>378</v>
       </c>
@@ -9838,10 +9835,10 @@
         <v>36</v>
       </c>
       <c r="J211" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="212" spans="1:10" x14ac:dyDescent="0.8">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="212" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A212">
         <v>379</v>
       </c>
@@ -9870,10 +9867,10 @@
         <v>40</v>
       </c>
       <c r="J212" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="213" spans="1:10" x14ac:dyDescent="0.8">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="213" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A213">
         <v>380</v>
       </c>
@@ -9902,10 +9899,10 @@
         <v>29</v>
       </c>
       <c r="J213" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="214" spans="1:10" x14ac:dyDescent="0.8">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="214" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A214">
         <v>383</v>
       </c>
@@ -9934,10 +9931,10 @@
         <v>14</v>
       </c>
       <c r="J214" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="215" spans="1:10" x14ac:dyDescent="0.8">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="215" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A215">
         <v>384</v>
       </c>
@@ -9966,10 +9963,10 @@
         <v>74</v>
       </c>
       <c r="J215" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="216" spans="1:10" x14ac:dyDescent="0.8">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="216" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A216">
         <v>386</v>
       </c>
@@ -9998,10 +9995,10 @@
         <v>19</v>
       </c>
       <c r="J216" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="217" spans="1:10" x14ac:dyDescent="0.8">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="217" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A217">
         <v>387</v>
       </c>
@@ -10030,10 +10027,10 @@
         <v>23</v>
       </c>
       <c r="J217" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="218" spans="1:10" x14ac:dyDescent="0.8">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="218" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A218">
         <v>388</v>
       </c>
@@ -10062,10 +10059,10 @@
         <v>31</v>
       </c>
       <c r="J218" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="219" spans="1:10" x14ac:dyDescent="0.8">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="219" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A219">
         <v>389</v>
       </c>
@@ -10094,10 +10091,10 @@
         <v>63</v>
       </c>
       <c r="J219" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="220" spans="1:10" x14ac:dyDescent="0.8">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="220" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A220">
         <v>390</v>
       </c>
@@ -10126,10 +10123,10 @@
         <v>71</v>
       </c>
       <c r="J220" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="221" spans="1:10" x14ac:dyDescent="0.8">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="221" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A221">
         <v>391</v>
       </c>
@@ -10158,10 +10155,10 @@
         <v>44</v>
       </c>
       <c r="J221" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="222" spans="1:10" x14ac:dyDescent="0.8">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="222" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A222">
         <v>392</v>
       </c>
@@ -10190,10 +10187,10 @@
         <v>48</v>
       </c>
       <c r="J222" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="223" spans="1:10" x14ac:dyDescent="0.8">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="223" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A223">
         <v>393</v>
       </c>
@@ -10222,10 +10219,10 @@
         <v>60</v>
       </c>
       <c r="J223" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="224" spans="1:10" x14ac:dyDescent="0.8">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="224" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A224">
         <v>395</v>
       </c>
@@ -10254,10 +10251,10 @@
         <v>1</v>
       </c>
       <c r="J224" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="225" spans="1:10" x14ac:dyDescent="0.8">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="225" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A225">
         <v>396</v>
       </c>
@@ -10286,10 +10283,10 @@
         <v>5</v>
       </c>
       <c r="J225" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="226" spans="1:10" x14ac:dyDescent="0.8">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="226" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A226">
         <v>398</v>
       </c>
@@ -10318,10 +10315,10 @@
         <v>42</v>
       </c>
       <c r="J226" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="227" spans="1:10" x14ac:dyDescent="0.8">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="227" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A227">
         <v>399</v>
       </c>
@@ -10350,10 +10347,10 @@
         <v>46</v>
       </c>
       <c r="J227" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="228" spans="1:10" x14ac:dyDescent="0.8">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="228" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A228">
         <v>400</v>
       </c>
@@ -10382,10 +10379,10 @@
         <v>58</v>
       </c>
       <c r="J228" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="229" spans="1:10" x14ac:dyDescent="0.8">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="229" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A229">
         <v>401</v>
       </c>
@@ -10414,10 +10411,10 @@
         <v>66</v>
       </c>
       <c r="J229" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="230" spans="1:10" x14ac:dyDescent="0.8">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="230" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A230">
         <v>402</v>
       </c>
@@ -10446,10 +10443,10 @@
         <v>70</v>
       </c>
       <c r="J230" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="231" spans="1:10" x14ac:dyDescent="0.8">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="231" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A231">
         <v>403</v>
       </c>
@@ -10478,10 +10475,10 @@
         <v>19</v>
       </c>
       <c r="J231" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="232" spans="1:10" x14ac:dyDescent="0.8">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="232" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A232">
         <v>404</v>
       </c>
@@ -10510,10 +10507,10 @@
         <v>71</v>
       </c>
       <c r="J232" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="233" spans="1:10" x14ac:dyDescent="0.8">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="233" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A233">
         <v>405</v>
       </c>
@@ -10542,10 +10539,10 @@
         <v>71</v>
       </c>
       <c r="J233" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="234" spans="1:10" x14ac:dyDescent="0.8">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="234" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A234">
         <v>406</v>
       </c>
@@ -10574,10 +10571,10 @@
         <v>4</v>
       </c>
       <c r="J234" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="235" spans="1:10" x14ac:dyDescent="0.8">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="235" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A235">
         <v>409</v>
       </c>
@@ -10606,10 +10603,10 @@
         <v>48</v>
       </c>
       <c r="J235" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="236" spans="1:10" x14ac:dyDescent="0.8">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="236" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A236">
         <v>410</v>
       </c>
@@ -10638,10 +10635,10 @@
         <v>64</v>
       </c>
       <c r="J236" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="237" spans="1:10" x14ac:dyDescent="0.8">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="237" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A237">
         <v>411</v>
       </c>
@@ -10670,10 +10667,10 @@
         <v>80</v>
       </c>
       <c r="J237" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="238" spans="1:10" x14ac:dyDescent="0.8">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="238" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A238">
         <v>412</v>
       </c>
@@ -10702,10 +10699,10 @@
         <v>5</v>
       </c>
       <c r="J238" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="239" spans="1:10" x14ac:dyDescent="0.8">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="239" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A239">
         <v>414</v>
       </c>
@@ -10734,10 +10731,10 @@
         <v>37</v>
       </c>
       <c r="J239" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="240" spans="1:10" x14ac:dyDescent="0.8">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="240" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A240">
         <v>415</v>
       </c>
@@ -10766,10 +10763,10 @@
         <v>22</v>
       </c>
       <c r="J240" t="s">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="241" spans="1:10" x14ac:dyDescent="0.8">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="241" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A241">
         <v>417</v>
       </c>
@@ -10798,10 +10795,10 @@
         <v>15</v>
       </c>
       <c r="J241" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="242" spans="1:10" x14ac:dyDescent="0.8">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="242" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A242">
         <v>418</v>
       </c>
@@ -10830,10 +10827,10 @@
         <v>43</v>
       </c>
       <c r="J242" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="243" spans="1:10" x14ac:dyDescent="0.8">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="243" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A243">
         <v>419</v>
       </c>
@@ -10862,10 +10859,10 @@
         <v>47</v>
       </c>
       <c r="J243" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="244" spans="1:10" x14ac:dyDescent="0.8">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="244" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A244">
         <v>420</v>
       </c>
@@ -10894,10 +10891,10 @@
         <v>51</v>
       </c>
       <c r="J244" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="245" spans="1:10" x14ac:dyDescent="0.8">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="245" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A245">
         <v>421</v>
       </c>
@@ -10926,10 +10923,10 @@
         <v>36</v>
       </c>
       <c r="J245" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="246" spans="1:10" x14ac:dyDescent="0.8">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="246" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A246">
         <v>423</v>
       </c>
@@ -10958,10 +10955,10 @@
         <v>64</v>
       </c>
       <c r="J246" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="247" spans="1:10" x14ac:dyDescent="0.8">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="247" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A247">
         <v>424</v>
       </c>
@@ -10990,10 +10987,10 @@
         <v>5</v>
       </c>
       <c r="J247" t="s">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="248" spans="1:10" x14ac:dyDescent="0.8">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="248" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A248">
         <v>425</v>
       </c>
@@ -11022,10 +11019,10 @@
         <v>13</v>
       </c>
       <c r="J248" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="249" spans="1:10" x14ac:dyDescent="0.8">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="249" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A249">
         <v>428</v>
       </c>
@@ -11054,10 +11051,10 @@
         <v>53</v>
       </c>
       <c r="J249" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="250" spans="1:10" x14ac:dyDescent="0.8">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="250" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A250">
         <v>429</v>
       </c>
@@ -11086,10 +11083,10 @@
         <v>57</v>
       </c>
       <c r="J250" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="251" spans="1:10" x14ac:dyDescent="0.8">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="251" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A251">
         <v>430</v>
       </c>
@@ -11118,10 +11115,10 @@
         <v>61</v>
       </c>
       <c r="J251" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="252" spans="1:10" x14ac:dyDescent="0.8">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="252" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A252">
         <v>431</v>
       </c>
@@ -11150,10 +11147,10 @@
         <v>77</v>
       </c>
       <c r="J252" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="253" spans="1:10" x14ac:dyDescent="0.8">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="253" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A253">
         <v>432</v>
       </c>
@@ -11182,10 +11179,10 @@
         <v>10</v>
       </c>
       <c r="J253" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="254" spans="1:10" x14ac:dyDescent="0.8">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="254" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A254">
         <v>433</v>
       </c>
@@ -11214,10 +11211,10 @@
         <v>14</v>
       </c>
       <c r="J254" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="255" spans="1:10" x14ac:dyDescent="0.8">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="255" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A255">
         <v>434</v>
       </c>
@@ -11246,10 +11243,10 @@
         <v>14</v>
       </c>
       <c r="J255" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="256" spans="1:10" x14ac:dyDescent="0.8">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="256" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A256">
         <v>435</v>
       </c>
@@ -11278,10 +11275,10 @@
         <v>22</v>
       </c>
       <c r="J256" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="257" spans="1:10" x14ac:dyDescent="0.8">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="257" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A257">
         <v>437</v>
       </c>
@@ -11310,10 +11307,10 @@
         <v>46</v>
       </c>
       <c r="J257" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="258" spans="1:10" x14ac:dyDescent="0.8">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="258" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A258">
         <v>438</v>
       </c>
@@ -11342,10 +11339,10 @@
         <v>58</v>
       </c>
       <c r="J258" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="259" spans="1:10" x14ac:dyDescent="0.8">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="259" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A259">
         <v>439</v>
       </c>
@@ -11374,10 +11371,10 @@
         <v>62</v>
       </c>
       <c r="J259" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="260" spans="1:10" x14ac:dyDescent="0.8">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="260" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A260">
         <v>440</v>
       </c>
@@ -11406,10 +11403,10 @@
         <v>70</v>
       </c>
       <c r="J260" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="261" spans="1:10" x14ac:dyDescent="0.8">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="261" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A261">
         <v>441</v>
       </c>
@@ -11438,10 +11435,10 @@
         <v>74</v>
       </c>
       <c r="J261" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="262" spans="1:10" x14ac:dyDescent="0.8">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="262" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A262">
         <v>442</v>
       </c>
@@ -11470,10 +11467,10 @@
         <v>43</v>
       </c>
       <c r="J262" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="263" spans="1:10" x14ac:dyDescent="0.8">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="263" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A263">
         <v>443</v>
       </c>
@@ -11502,10 +11499,10 @@
         <v>51</v>
       </c>
       <c r="J263" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="264" spans="1:10" x14ac:dyDescent="0.8">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="264" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A264">
         <v>444</v>
       </c>
@@ -11534,10 +11531,10 @@
         <v>63</v>
       </c>
       <c r="J264" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="265" spans="1:10" x14ac:dyDescent="0.8">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="265" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A265">
         <v>445</v>
       </c>
@@ -11566,10 +11563,10 @@
         <v>48</v>
       </c>
       <c r="J265" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="266" spans="1:10" x14ac:dyDescent="0.8">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="266" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A266">
         <v>446</v>
       </c>
@@ -11598,10 +11595,10 @@
         <v>52</v>
       </c>
       <c r="J266" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="267" spans="1:10" x14ac:dyDescent="0.8">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="267" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A267">
         <v>447</v>
       </c>
@@ -11630,10 +11627,10 @@
         <v>60</v>
       </c>
       <c r="J267" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="268" spans="1:10" x14ac:dyDescent="0.8">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="268" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A268">
         <v>448</v>
       </c>
@@ -11662,10 +11659,10 @@
         <v>64</v>
       </c>
       <c r="J268" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="269" spans="1:10" x14ac:dyDescent="0.8">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="269" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A269">
         <v>449</v>
       </c>
@@ -11694,10 +11691,10 @@
         <v>76</v>
       </c>
       <c r="J269" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="270" spans="1:10" x14ac:dyDescent="0.8">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="270" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A270">
         <v>450</v>
       </c>
@@ -11726,10 +11723,10 @@
         <v>1</v>
       </c>
       <c r="J270" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="271" spans="1:10" x14ac:dyDescent="0.8">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="271" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A271">
         <v>451</v>
       </c>
@@ -11758,10 +11755,10 @@
         <v>21</v>
       </c>
       <c r="J271" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="272" spans="1:10" x14ac:dyDescent="0.8">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="272" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A272">
         <v>452</v>
       </c>
@@ -11790,10 +11787,10 @@
         <v>25</v>
       </c>
       <c r="J272" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="273" spans="1:10" x14ac:dyDescent="0.8">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="273" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A273">
         <v>454</v>
       </c>
@@ -11822,10 +11819,10 @@
         <v>41</v>
       </c>
       <c r="J273" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="274" spans="1:10" x14ac:dyDescent="0.8">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="274" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A274">
         <v>456</v>
       </c>
@@ -11854,10 +11851,10 @@
         <v>61</v>
       </c>
       <c r="J274" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="275" spans="1:10" x14ac:dyDescent="0.8">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="275" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A275">
         <v>457</v>
       </c>
@@ -11886,10 +11883,10 @@
         <v>42</v>
       </c>
       <c r="J275" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="276" spans="1:10" x14ac:dyDescent="0.8">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="276" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A276">
         <v>459</v>
       </c>
@@ -11918,10 +11915,10 @@
         <v>66</v>
       </c>
       <c r="J276" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="277" spans="1:10" x14ac:dyDescent="0.8">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="277" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A277">
         <v>461</v>
       </c>
@@ -11950,10 +11947,10 @@
         <v>55</v>
       </c>
       <c r="J277" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="278" spans="1:10" x14ac:dyDescent="0.8">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="278" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A278">
         <v>462</v>
       </c>
@@ -11982,10 +11979,10 @@
         <v>79</v>
       </c>
       <c r="J278" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="279" spans="1:10" x14ac:dyDescent="0.8">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="279" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A279">
         <v>463</v>
       </c>
@@ -12014,10 +12011,10 @@
         <v>20</v>
       </c>
       <c r="J279" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="280" spans="1:10" x14ac:dyDescent="0.8">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="280" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A280">
         <v>464</v>
       </c>
@@ -12046,10 +12043,10 @@
         <v>64</v>
       </c>
       <c r="J280" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="281" spans="1:10" x14ac:dyDescent="0.8">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="281" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A281">
         <v>465</v>
       </c>
@@ -12078,10 +12075,10 @@
         <v>13</v>
       </c>
       <c r="J281" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="282" spans="1:10" x14ac:dyDescent="0.8">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="282" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A282">
         <v>466</v>
       </c>
@@ -12110,10 +12107,10 @@
         <v>25</v>
       </c>
       <c r="J282" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="283" spans="1:10" x14ac:dyDescent="0.8">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="283" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A283">
         <v>467</v>
       </c>
@@ -12142,10 +12139,10 @@
         <v>37</v>
       </c>
       <c r="J283" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="284" spans="1:10" x14ac:dyDescent="0.8">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="284" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A284">
         <v>473</v>
       </c>
@@ -12174,10 +12171,10 @@
         <v>2</v>
       </c>
       <c r="J284" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="285" spans="1:10" x14ac:dyDescent="0.8">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="285" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A285">
         <v>474</v>
       </c>
@@ -12206,10 +12203,10 @@
         <v>14</v>
       </c>
       <c r="J285" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="286" spans="1:10" x14ac:dyDescent="0.8">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="286" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A286">
         <v>475</v>
       </c>
@@ -12238,10 +12235,10 @@
         <v>18</v>
       </c>
       <c r="J286" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="287" spans="1:10" x14ac:dyDescent="0.8">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="287" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A287">
         <v>477</v>
       </c>
@@ -12270,10 +12267,10 @@
         <v>66</v>
       </c>
       <c r="J287" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="288" spans="1:10" x14ac:dyDescent="0.8">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="288" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A288">
         <v>479</v>
       </c>
@@ -12302,10 +12299,10 @@
         <v>39</v>
       </c>
       <c r="J288" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="289" spans="1:10" x14ac:dyDescent="0.8">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="289" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A289">
         <v>481</v>
       </c>
@@ -12334,10 +12331,10 @@
         <v>75</v>
       </c>
       <c r="J289" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="290" spans="1:10" x14ac:dyDescent="0.8">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="290" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A290">
         <v>482</v>
       </c>
@@ -12366,10 +12363,10 @@
         <v>5</v>
       </c>
       <c r="J290" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="291" spans="1:10" x14ac:dyDescent="0.8">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="291" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A291">
         <v>483</v>
       </c>
@@ -12398,10 +12395,10 @@
         <v>21</v>
       </c>
       <c r="J291" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="292" spans="1:10" x14ac:dyDescent="0.8">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="292" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A292">
         <v>486</v>
       </c>
@@ -12430,10 +12427,10 @@
         <v>61</v>
       </c>
       <c r="J292" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="293" spans="1:10" x14ac:dyDescent="0.8">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="293" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A293">
         <v>487</v>
       </c>
@@ -12462,10 +12459,10 @@
         <v>69</v>
       </c>
       <c r="J293" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="294" spans="1:10" x14ac:dyDescent="0.8">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="294" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A294">
         <v>488</v>
       </c>
@@ -12494,10 +12491,10 @@
         <v>69</v>
       </c>
       <c r="J294" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="295" spans="1:10" x14ac:dyDescent="0.8">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="295" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A295">
         <v>490</v>
       </c>
@@ -12526,10 +12523,10 @@
         <v>22</v>
       </c>
       <c r="J295" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="296" spans="1:10" x14ac:dyDescent="0.8">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="296" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A296">
         <v>492</v>
       </c>
@@ -12558,10 +12555,10 @@
         <v>50</v>
       </c>
       <c r="J296" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="297" spans="1:10" x14ac:dyDescent="0.8">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="297" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A297">
         <v>493</v>
       </c>
@@ -12590,10 +12587,10 @@
         <v>19</v>
       </c>
       <c r="J297" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="298" spans="1:10" x14ac:dyDescent="0.8">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="298" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A298">
         <v>494</v>
       </c>
@@ -12622,10 +12619,10 @@
         <v>27</v>
       </c>
       <c r="J298" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="299" spans="1:10" x14ac:dyDescent="0.8">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="299" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A299">
         <v>496</v>
       </c>
@@ -12654,10 +12651,10 @@
         <v>51</v>
       </c>
       <c r="J299" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="300" spans="1:10" x14ac:dyDescent="0.8">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="300" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A300">
         <v>497</v>
       </c>
@@ -12686,10 +12683,10 @@
         <v>60</v>
       </c>
       <c r="J300" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="301" spans="1:10" x14ac:dyDescent="0.8">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="301" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A301">
         <v>499</v>
       </c>
@@ -12718,10 +12715,10 @@
         <v>8</v>
       </c>
       <c r="J301" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="302" spans="1:10" x14ac:dyDescent="0.8">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="302" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A302">
         <v>500</v>
       </c>
@@ -12750,10 +12747,10 @@
         <v>21</v>
       </c>
       <c r="J302" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="303" spans="1:10" x14ac:dyDescent="0.8">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="303" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A303">
         <v>501</v>
       </c>
@@ -12782,10 +12779,10 @@
         <v>37</v>
       </c>
       <c r="J303" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="304" spans="1:10" x14ac:dyDescent="0.8">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="304" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A304">
         <v>502</v>
       </c>
@@ -12814,10 +12811,10 @@
         <v>37</v>
       </c>
       <c r="J304" t="s">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="305" spans="1:10" x14ac:dyDescent="0.8">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="305" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A305">
         <v>504</v>
       </c>
@@ -12846,10 +12843,10 @@
         <v>53</v>
       </c>
       <c r="J305" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="306" spans="1:10" x14ac:dyDescent="0.8">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="306" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A306">
         <v>505</v>
       </c>
@@ -12878,10 +12875,10 @@
         <v>57</v>
       </c>
       <c r="J306" t="s">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="307" spans="1:10" x14ac:dyDescent="0.8">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="307" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A307">
         <v>506</v>
       </c>
@@ -12910,10 +12907,10 @@
         <v>69</v>
       </c>
       <c r="J307" t="s">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="308" spans="1:10" x14ac:dyDescent="0.8">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="308" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A308">
         <v>509</v>
       </c>
@@ -12942,10 +12939,10 @@
         <v>14</v>
       </c>
       <c r="J308" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="309" spans="1:10" x14ac:dyDescent="0.8">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="309" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A309">
         <v>510</v>
       </c>
@@ -12974,10 +12971,10 @@
         <v>18</v>
       </c>
       <c r="J309" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="310" spans="1:10" x14ac:dyDescent="0.8">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="310" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A310">
         <v>511</v>
       </c>
@@ -13006,10 +13003,10 @@
         <v>26</v>
       </c>
       <c r="J310" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="311" spans="1:10" x14ac:dyDescent="0.8">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="311" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A311">
         <v>512</v>
       </c>
@@ -13038,10 +13035,10 @@
         <v>30</v>
       </c>
       <c r="J311" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="312" spans="1:10" x14ac:dyDescent="0.8">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="312" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A312">
         <v>513</v>
       </c>
@@ -13070,10 +13067,10 @@
         <v>50</v>
       </c>
       <c r="J312" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="313" spans="1:10" x14ac:dyDescent="0.8">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="313" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A313">
         <v>514</v>
       </c>
@@ -13102,10 +13099,10 @@
         <v>78</v>
       </c>
       <c r="J313" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="314" spans="1:10" x14ac:dyDescent="0.8">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="314" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A314">
         <v>515</v>
       </c>
@@ -13134,10 +13131,10 @@
         <v>27</v>
       </c>
       <c r="J314" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="315" spans="1:10" x14ac:dyDescent="0.8">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="315" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A315">
         <v>517</v>
       </c>
@@ -13166,10 +13163,10 @@
         <v>55</v>
       </c>
       <c r="J315" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="316" spans="1:10" x14ac:dyDescent="0.8">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="316" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A316">
         <v>518</v>
       </c>
@@ -13198,10 +13195,10 @@
         <v>79</v>
       </c>
       <c r="J316" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="317" spans="1:10" x14ac:dyDescent="0.8">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="317" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A317">
         <v>519</v>
       </c>
@@ -13230,10 +13227,10 @@
         <v>5</v>
       </c>
       <c r="J317" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="318" spans="1:10" x14ac:dyDescent="0.8">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="318" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A318">
         <v>522</v>
       </c>
@@ -13262,10 +13259,10 @@
         <v>25</v>
       </c>
       <c r="J318" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="319" spans="1:10" x14ac:dyDescent="0.8">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="319" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A319">
         <v>524</v>
       </c>
@@ -13294,10 +13291,10 @@
         <v>57</v>
       </c>
       <c r="J319" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="320" spans="1:10" x14ac:dyDescent="0.8">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="320" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A320">
         <v>525</v>
       </c>
@@ -13326,10 +13323,10 @@
         <v>9</v>
       </c>
       <c r="J320" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="321" spans="1:10" x14ac:dyDescent="0.8">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="321" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A321">
         <v>526</v>
       </c>
@@ -13358,10 +13355,10 @@
         <v>66</v>
       </c>
       <c r="J321" t="s">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="322" spans="1:10" x14ac:dyDescent="0.8">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="322" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A322">
         <v>527</v>
       </c>
@@ -13390,10 +13387,10 @@
         <v>70</v>
       </c>
       <c r="J322" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="323" spans="1:10" x14ac:dyDescent="0.8">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="323" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A323">
         <v>528</v>
       </c>
@@ -13422,10 +13419,10 @@
         <v>74</v>
       </c>
       <c r="J323" t="s">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="324" spans="1:10" x14ac:dyDescent="0.8">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="324" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A324">
         <v>529</v>
       </c>
@@ -13454,10 +13451,10 @@
         <v>39</v>
       </c>
       <c r="J324" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="325" spans="1:10" x14ac:dyDescent="0.8">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="325" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A325">
         <v>530</v>
       </c>
@@ -13486,10 +13483,10 @@
         <v>71</v>
       </c>
       <c r="J325" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="326" spans="1:10" x14ac:dyDescent="0.8">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="326" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A326">
         <v>532</v>
       </c>
@@ -13518,10 +13515,10 @@
         <v>79</v>
       </c>
       <c r="J326" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="327" spans="1:10" x14ac:dyDescent="0.8">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="327" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A327">
         <v>534</v>
       </c>
@@ -13550,10 +13547,10 @@
         <v>8</v>
       </c>
       <c r="J327" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="328" spans="1:10" x14ac:dyDescent="0.8">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="328" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A328">
         <v>535</v>
       </c>
@@ -13582,10 +13579,10 @@
         <v>37</v>
       </c>
       <c r="J328" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="329" spans="1:10" x14ac:dyDescent="0.8">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="329" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A329">
         <v>537</v>
       </c>
@@ -13614,10 +13611,10 @@
         <v>14</v>
       </c>
       <c r="J329" t="s">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="330" spans="1:10" x14ac:dyDescent="0.8">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="330" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A330">
         <v>538</v>
       </c>
@@ -13646,10 +13643,10 @@
         <v>14</v>
       </c>
       <c r="J330" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="331" spans="1:10" x14ac:dyDescent="0.8">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="331" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A331">
         <v>539</v>
       </c>
@@ -13678,10 +13675,10 @@
         <v>18</v>
       </c>
       <c r="J331" t="s">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="332" spans="1:10" x14ac:dyDescent="0.8">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="332" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A332">
         <v>540</v>
       </c>
@@ -13710,10 +13707,10 @@
         <v>34</v>
       </c>
       <c r="J332" t="s">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="333" spans="1:10" x14ac:dyDescent="0.8">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="333" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A333">
         <v>541</v>
       </c>
@@ -13742,10 +13739,10 @@
         <v>50</v>
       </c>
       <c r="J333" t="s">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="334" spans="1:10" x14ac:dyDescent="0.8">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="334" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A334">
         <v>543</v>
       </c>
@@ -13774,10 +13771,10 @@
         <v>62</v>
       </c>
       <c r="J334" t="s">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="335" spans="1:10" x14ac:dyDescent="0.8">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="335" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A335">
         <v>545</v>
       </c>
@@ -13806,10 +13803,10 @@
         <v>74</v>
       </c>
       <c r="J335" t="s">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="336" spans="1:10" x14ac:dyDescent="0.8">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="336" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A336">
         <v>546</v>
       </c>
@@ -13838,10 +13835,10 @@
         <v>74</v>
       </c>
       <c r="J336" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="337" spans="1:10" x14ac:dyDescent="0.8">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="337" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A337">
         <v>547</v>
       </c>
@@ -13870,10 +13867,10 @@
         <v>24</v>
       </c>
       <c r="J337" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="338" spans="1:10" x14ac:dyDescent="0.8">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="338" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A338">
         <v>549</v>
       </c>
@@ -13902,10 +13899,10 @@
         <v>25</v>
       </c>
       <c r="J338" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="339" spans="1:10" x14ac:dyDescent="0.8">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="339" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A339">
         <v>550</v>
       </c>
@@ -13934,10 +13931,10 @@
         <v>37</v>
       </c>
       <c r="J339" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="340" spans="1:10" x14ac:dyDescent="0.8">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="340" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A340">
         <v>553</v>
       </c>
@@ -13966,10 +13963,10 @@
         <v>34</v>
       </c>
       <c r="J340" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="341" spans="1:10" x14ac:dyDescent="0.8">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="341" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A341">
         <v>554</v>
       </c>
@@ -13998,10 +13995,10 @@
         <v>74</v>
       </c>
       <c r="J341" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="342" spans="1:10" x14ac:dyDescent="0.8">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="342" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A342">
         <v>556</v>
       </c>
@@ -14030,10 +14027,10 @@
         <v>43</v>
       </c>
       <c r="J342" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="343" spans="1:10" x14ac:dyDescent="0.8">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="343" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A343">
         <v>557</v>
       </c>
@@ -14062,10 +14059,10 @@
         <v>75</v>
       </c>
       <c r="J343" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="344" spans="1:10" x14ac:dyDescent="0.8">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="344" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A344">
         <v>558</v>
       </c>
@@ -14094,10 +14091,10 @@
         <v>79</v>
       </c>
       <c r="J344" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="345" spans="1:10" x14ac:dyDescent="0.8">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="345" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A345">
         <v>559</v>
       </c>
@@ -14126,10 +14123,10 @@
         <v>44</v>
       </c>
       <c r="J345" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="346" spans="1:10" x14ac:dyDescent="0.8">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="346" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A346">
         <v>560</v>
       </c>
@@ -14158,10 +14155,10 @@
         <v>64</v>
       </c>
       <c r="J346" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="347" spans="1:10" x14ac:dyDescent="0.8">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="347" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A347">
         <v>561</v>
       </c>
@@ -14190,10 +14187,10 @@
         <v>8</v>
       </c>
       <c r="J347" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="348" spans="1:10" x14ac:dyDescent="0.8">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="348" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A348">
         <v>562</v>
       </c>
@@ -14222,10 +14219,10 @@
         <v>1</v>
       </c>
       <c r="J348" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="349" spans="1:10" x14ac:dyDescent="0.8">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="349" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A349">
         <v>563</v>
       </c>
@@ -14254,10 +14251,10 @@
         <v>41</v>
       </c>
       <c r="J349" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="350" spans="1:10" x14ac:dyDescent="0.8">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="350" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A350">
         <v>565</v>
       </c>
@@ -14286,10 +14283,10 @@
         <v>77</v>
       </c>
       <c r="J350" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="351" spans="1:10" x14ac:dyDescent="0.8">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="351" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A351">
         <v>566</v>
       </c>
@@ -14318,10 +14315,10 @@
         <v>9</v>
       </c>
       <c r="J351" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="352" spans="1:10" x14ac:dyDescent="0.8">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="352" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A352">
         <v>567</v>
       </c>
@@ -14350,10 +14347,10 @@
         <v>10</v>
       </c>
       <c r="J352" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="353" spans="1:10" x14ac:dyDescent="0.8">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="353" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A353">
         <v>568</v>
       </c>
@@ -14382,10 +14379,10 @@
         <v>14</v>
       </c>
       <c r="J353" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="354" spans="1:10" x14ac:dyDescent="0.8">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="354" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A354">
         <v>569</v>
       </c>
@@ -14414,10 +14411,10 @@
         <v>18</v>
       </c>
       <c r="J354" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="355" spans="1:10" x14ac:dyDescent="0.8">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="355" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A355">
         <v>571</v>
       </c>
@@ -14446,10 +14443,10 @@
         <v>46</v>
       </c>
       <c r="J355" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="356" spans="1:10" x14ac:dyDescent="0.8">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="356" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A356">
         <v>572</v>
       </c>
@@ -14478,10 +14475,10 @@
         <v>70</v>
       </c>
       <c r="J356" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="357" spans="1:10" x14ac:dyDescent="0.8">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="357" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A357">
         <v>573</v>
       </c>
@@ -14510,10 +14507,10 @@
         <v>23</v>
       </c>
       <c r="J357" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="358" spans="1:10" x14ac:dyDescent="0.8">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="358" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A358">
         <v>574</v>
       </c>
@@ -14542,10 +14539,10 @@
         <v>27</v>
       </c>
       <c r="J358" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="359" spans="1:10" x14ac:dyDescent="0.8">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="359" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A359">
         <v>575</v>
       </c>
@@ -14574,10 +14571,10 @@
         <v>31</v>
       </c>
       <c r="J359" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="360" spans="1:10" x14ac:dyDescent="0.8">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="360" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A360">
         <v>577</v>
       </c>
@@ -14606,10 +14603,10 @@
         <v>39</v>
       </c>
       <c r="J360" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="361" spans="1:10" x14ac:dyDescent="0.8">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="361" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A361">
         <v>578</v>
       </c>
@@ -14638,10 +14635,10 @@
         <v>55</v>
       </c>
       <c r="J361" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="362" spans="1:10" x14ac:dyDescent="0.8">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="362" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A362">
         <v>579</v>
       </c>
@@ -14670,10 +14667,10 @@
         <v>7</v>
       </c>
       <c r="J362" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="363" spans="1:10" x14ac:dyDescent="0.8">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="363" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A363">
         <v>580</v>
       </c>
@@ -14702,10 +14699,10 @@
         <v>79</v>
       </c>
       <c r="J363" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="364" spans="1:10" x14ac:dyDescent="0.8">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="364" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A364">
         <v>582</v>
       </c>
@@ -14734,10 +14731,10 @@
         <v>28</v>
       </c>
       <c r="J364" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="365" spans="1:10" x14ac:dyDescent="0.8">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="365" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A365">
         <v>584</v>
       </c>
@@ -14766,10 +14763,10 @@
         <v>52</v>
       </c>
       <c r="J365" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="366" spans="1:10" x14ac:dyDescent="0.8">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="366" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A366">
         <v>585</v>
       </c>
@@ -14798,10 +14795,10 @@
         <v>52</v>
       </c>
       <c r="J366" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="367" spans="1:10" x14ac:dyDescent="0.8">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="367" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A367">
         <v>586</v>
       </c>
@@ -14830,10 +14827,10 @@
         <v>56</v>
       </c>
       <c r="J367" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="368" spans="1:10" x14ac:dyDescent="0.8">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="368" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A368">
         <v>587</v>
       </c>
@@ -14862,10 +14859,10 @@
         <v>64</v>
       </c>
       <c r="J368" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="369" spans="1:10" x14ac:dyDescent="0.8">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="369" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A369">
         <v>588</v>
       </c>
@@ -14894,10 +14891,10 @@
         <v>72</v>
       </c>
       <c r="J369" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="370" spans="1:10" x14ac:dyDescent="0.8">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="370" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A370">
         <v>589</v>
       </c>
@@ -14926,10 +14923,10 @@
         <v>76</v>
       </c>
       <c r="J370" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="371" spans="1:10" x14ac:dyDescent="0.8">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="371" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A371">
         <v>590</v>
       </c>
@@ -14958,10 +14955,10 @@
         <v>21</v>
       </c>
       <c r="J371" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="372" spans="1:10" x14ac:dyDescent="0.8">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="372" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A372">
         <v>591</v>
       </c>
@@ -14990,10 +14987,10 @@
         <v>37</v>
       </c>
       <c r="J372" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="373" spans="1:10" x14ac:dyDescent="0.8">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="373" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A373">
         <v>592</v>
       </c>
@@ -15022,10 +15019,10 @@
         <v>61</v>
       </c>
       <c r="J373" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="374" spans="1:10" x14ac:dyDescent="0.8">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="374" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A374">
         <v>593</v>
       </c>
@@ -15054,10 +15051,10 @@
         <v>65</v>
       </c>
       <c r="J374" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="375" spans="1:10" x14ac:dyDescent="0.8">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="375" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A375">
         <v>594</v>
       </c>
@@ -15086,10 +15083,10 @@
         <v>2</v>
       </c>
       <c r="J375" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="376" spans="1:10" x14ac:dyDescent="0.8">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="376" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A376">
         <v>595</v>
       </c>
@@ -15118,10 +15115,10 @@
         <v>2</v>
       </c>
       <c r="J376" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="377" spans="1:10" x14ac:dyDescent="0.8">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="377" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A377">
         <v>596</v>
       </c>
@@ -15150,10 +15147,10 @@
         <v>14</v>
       </c>
       <c r="J377" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="378" spans="1:10" x14ac:dyDescent="0.8">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="378" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A378">
         <v>597</v>
       </c>
@@ -15182,10 +15179,10 @@
         <v>26</v>
       </c>
       <c r="J378" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="379" spans="1:10" x14ac:dyDescent="0.8">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="379" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A379">
         <v>598</v>
       </c>
@@ -15214,10 +15211,10 @@
         <v>46</v>
       </c>
       <c r="J379" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="380" spans="1:10" x14ac:dyDescent="0.8">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="380" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A380">
         <v>599</v>
       </c>
@@ -15246,10 +15243,10 @@
         <v>58</v>
       </c>
       <c r="J380" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="381" spans="1:10" x14ac:dyDescent="0.8">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="381" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A381">
         <v>600</v>
       </c>
@@ -15278,10 +15275,10 @@
         <v>66</v>
       </c>
       <c r="J381" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="382" spans="1:10" x14ac:dyDescent="0.8">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="382" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A382">
         <v>601</v>
       </c>
@@ -15310,10 +15307,10 @@
         <v>70</v>
       </c>
       <c r="J382" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="383" spans="1:10" x14ac:dyDescent="0.8">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="383" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A383">
         <v>604</v>
       </c>
@@ -15342,10 +15339,10 @@
         <v>19</v>
       </c>
       <c r="J383" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="384" spans="1:10" x14ac:dyDescent="0.8">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="384" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A384">
         <v>605</v>
       </c>
@@ -15374,10 +15371,10 @@
         <v>51</v>
       </c>
       <c r="J384" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="385" spans="1:10" x14ac:dyDescent="0.8">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="385" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A385">
         <v>607</v>
       </c>
@@ -15406,10 +15403,10 @@
         <v>40</v>
       </c>
       <c r="J385" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="386" spans="1:10" x14ac:dyDescent="0.8">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="386" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A386">
         <v>608</v>
       </c>
@@ -15438,10 +15435,10 @@
         <v>48</v>
       </c>
       <c r="J386" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="387" spans="1:10" x14ac:dyDescent="0.8">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="387" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A387">
         <v>609</v>
       </c>
@@ -15470,10 +15467,10 @@
         <v>56</v>
       </c>
       <c r="J387" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="388" spans="1:10" x14ac:dyDescent="0.8">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="388" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A388">
         <v>610</v>
       </c>
@@ -15502,10 +15499,10 @@
         <v>72</v>
       </c>
       <c r="J388" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="389" spans="1:10" x14ac:dyDescent="0.8">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="389" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A389">
         <v>612</v>
       </c>
@@ -15534,10 +15531,10 @@
         <v>5</v>
       </c>
       <c r="J389" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="390" spans="1:10" x14ac:dyDescent="0.8">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="390" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A390">
         <v>613</v>
       </c>
@@ -15566,10 +15563,10 @@
         <v>13</v>
       </c>
       <c r="J390" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="391" spans="1:10" x14ac:dyDescent="0.8">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="391" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A391">
         <v>614</v>
       </c>
@@ -15598,10 +15595,10 @@
         <v>17</v>
       </c>
       <c r="J391" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="392" spans="1:10" x14ac:dyDescent="0.8">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="392" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A392">
         <v>615</v>
       </c>
@@ -15630,10 +15627,10 @@
         <v>29</v>
       </c>
       <c r="J392" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="393" spans="1:10" x14ac:dyDescent="0.8">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="393" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A393">
         <v>616</v>
       </c>
@@ -15662,10 +15659,10 @@
         <v>37</v>
       </c>
       <c r="J393" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="394" spans="1:10" x14ac:dyDescent="0.8">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="394" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A394">
         <v>619</v>
       </c>
@@ -15694,10 +15691,10 @@
         <v>49</v>
       </c>
       <c r="J394" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="395" spans="1:10" x14ac:dyDescent="0.8">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="395" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A395">
         <v>620</v>
       </c>
@@ -15726,10 +15723,10 @@
         <v>53</v>
       </c>
       <c r="J395" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="396" spans="1:10" x14ac:dyDescent="0.8">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="396" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A396">
         <v>623</v>
       </c>
@@ -15758,10 +15755,10 @@
         <v>77</v>
       </c>
       <c r="J396" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="397" spans="1:10" x14ac:dyDescent="0.8">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="397" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A397">
         <v>624</v>
       </c>
@@ -15790,10 +15787,10 @@
         <v>77</v>
       </c>
       <c r="J397" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="398" spans="1:10" x14ac:dyDescent="0.8">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="398" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A398">
         <v>625</v>
       </c>
@@ -15822,10 +15819,10 @@
         <v>14</v>
       </c>
       <c r="J398" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="399" spans="1:10" x14ac:dyDescent="0.8">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="399" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A399">
         <v>626</v>
       </c>
@@ -15854,10 +15851,10 @@
         <v>18</v>
       </c>
       <c r="J399" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="400" spans="1:10" x14ac:dyDescent="0.8">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="400" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A400">
         <v>628</v>
       </c>
@@ -15886,10 +15883,10 @@
         <v>50</v>
       </c>
       <c r="J400" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="401" spans="1:10" x14ac:dyDescent="0.8">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="401" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A401">
         <v>630</v>
       </c>
@@ -15918,10 +15915,10 @@
         <v>78</v>
       </c>
       <c r="J401" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="402" spans="1:10" x14ac:dyDescent="0.8">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="402" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A402">
         <v>631</v>
       </c>
@@ -15950,10 +15947,10 @@
         <v>23</v>
       </c>
       <c r="J402" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="403" spans="1:10" x14ac:dyDescent="0.8">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="403" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A403">
         <v>632</v>
       </c>
@@ -15982,10 +15979,10 @@
         <v>47</v>
       </c>
       <c r="J403" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="404" spans="1:10" x14ac:dyDescent="0.8">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="404" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A404">
         <v>633</v>
       </c>
@@ -16014,10 +16011,10 @@
         <v>51</v>
       </c>
       <c r="J404" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="405" spans="1:10" x14ac:dyDescent="0.8">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="405" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A405">
         <v>634</v>
       </c>
@@ -16046,10 +16043,10 @@
         <v>55</v>
       </c>
       <c r="J405" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="406" spans="1:10" x14ac:dyDescent="0.8">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="406" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A406">
         <v>635</v>
       </c>
@@ -16078,10 +16075,10 @@
         <v>63</v>
       </c>
       <c r="J406" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="407" spans="1:10" x14ac:dyDescent="0.8">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="407" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A407">
         <v>636</v>
       </c>
@@ -16110,10 +16107,10 @@
         <v>4</v>
       </c>
       <c r="J407" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="408" spans="1:10" x14ac:dyDescent="0.8">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="408" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A408">
         <v>638</v>
       </c>
@@ -16142,10 +16139,10 @@
         <v>20</v>
       </c>
       <c r="J408" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="409" spans="1:10" x14ac:dyDescent="0.8">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="409" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A409">
         <v>639</v>
       </c>
@@ -16174,10 +16171,10 @@
         <v>52</v>
       </c>
       <c r="J409" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="410" spans="1:10" x14ac:dyDescent="0.8">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="410" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A410">
         <v>640</v>
       </c>
@@ -16206,10 +16203,10 @@
         <v>68</v>
       </c>
       <c r="J410" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="411" spans="1:10" x14ac:dyDescent="0.8">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="411" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A411">
         <v>642</v>
       </c>
@@ -16238,10 +16235,10 @@
         <v>8</v>
       </c>
       <c r="J411" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="412" spans="1:10" x14ac:dyDescent="0.8">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="412" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A412">
         <v>643</v>
       </c>
@@ -16270,10 +16267,10 @@
         <v>8</v>
       </c>
       <c r="J412" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="413" spans="1:10" x14ac:dyDescent="0.8">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="413" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A413">
         <v>644</v>
       </c>
@@ -16302,10 +16299,10 @@
         <v>5</v>
       </c>
       <c r="J413" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="414" spans="1:10" x14ac:dyDescent="0.8">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="414" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A414">
         <v>645</v>
       </c>
@@ -16334,10 +16331,10 @@
         <v>21</v>
       </c>
       <c r="J414" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="415" spans="1:10" x14ac:dyDescent="0.8">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="415" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A415">
         <v>646</v>
       </c>
@@ -16366,10 +16363,10 @@
         <v>37</v>
       </c>
       <c r="J415" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="416" spans="1:10" x14ac:dyDescent="0.8">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="416" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A416">
         <v>647</v>
       </c>
@@ -16398,10 +16395,10 @@
         <v>53</v>
       </c>
       <c r="J416" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="417" spans="1:10" x14ac:dyDescent="0.8">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="417" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A417">
         <v>648</v>
       </c>
@@ -16430,10 +16427,10 @@
         <v>69</v>
       </c>
       <c r="J417" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="418" spans="1:10" x14ac:dyDescent="0.8">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="418" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A418">
         <v>649</v>
       </c>
@@ -16462,10 +16459,10 @@
         <v>10</v>
       </c>
       <c r="J418" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="419" spans="1:10" x14ac:dyDescent="0.8">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="419" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A419">
         <v>650</v>
       </c>
@@ -16494,10 +16491,10 @@
         <v>18</v>
       </c>
       <c r="J419" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="420" spans="1:10" x14ac:dyDescent="0.8">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="420" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A420">
         <v>651</v>
       </c>
@@ -16526,10 +16523,10 @@
         <v>26</v>
       </c>
       <c r="J420" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="421" spans="1:10" x14ac:dyDescent="0.8">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="421" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A421">
         <v>652</v>
       </c>
@@ -16558,10 +16555,10 @@
         <v>66</v>
       </c>
       <c r="J421" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="422" spans="1:10" x14ac:dyDescent="0.8">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="422" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A422">
         <v>653</v>
       </c>
@@ -16590,10 +16587,10 @@
         <v>70</v>
       </c>
       <c r="J422" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="423" spans="1:10" x14ac:dyDescent="0.8">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="423" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A423">
         <v>654</v>
       </c>
@@ -16622,10 +16619,10 @@
         <v>74</v>
       </c>
       <c r="J423" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="424" spans="1:10" x14ac:dyDescent="0.8">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="424" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A424">
         <v>655</v>
       </c>
@@ -16654,10 +16651,10 @@
         <v>11</v>
       </c>
       <c r="J424" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="425" spans="1:10" x14ac:dyDescent="0.8">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="425" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A425">
         <v>657</v>
       </c>
@@ -16686,10 +16683,10 @@
         <v>51</v>
       </c>
       <c r="J425" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="426" spans="1:10" x14ac:dyDescent="0.8">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="426" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A426">
         <v>658</v>
       </c>
@@ -16718,10 +16715,10 @@
         <v>55</v>
       </c>
       <c r="J426" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="427" spans="1:10" x14ac:dyDescent="0.8">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="427" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A427">
         <v>659</v>
       </c>
@@ -16750,10 +16747,10 @@
         <v>79</v>
       </c>
       <c r="J427" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="428" spans="1:10" x14ac:dyDescent="0.8">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="428" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A428">
         <v>660</v>
       </c>
@@ -16782,10 +16779,10 @@
         <v>28</v>
       </c>
       <c r="J428" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="429" spans="1:10" x14ac:dyDescent="0.8">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="429" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A429">
         <v>661</v>
       </c>
@@ -16814,10 +16811,10 @@
         <v>32</v>
       </c>
       <c r="J429" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="430" spans="1:10" x14ac:dyDescent="0.8">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="430" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A430">
         <v>662</v>
       </c>
@@ -16846,10 +16843,10 @@
         <v>40</v>
       </c>
       <c r="J430" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="431" spans="1:10" x14ac:dyDescent="0.8">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="431" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A431">
         <v>663</v>
       </c>
@@ -16878,10 +16875,10 @@
         <v>52</v>
       </c>
       <c r="J431" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="432" spans="1:10" x14ac:dyDescent="0.8">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="432" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A432">
         <v>664</v>
       </c>
@@ -16910,10 +16907,10 @@
         <v>8</v>
       </c>
       <c r="J432" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="433" spans="1:10" x14ac:dyDescent="0.8">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="433" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A433">
         <v>665</v>
       </c>
@@ -16942,10 +16939,10 @@
         <v>1</v>
       </c>
       <c r="J433" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="434" spans="1:10" x14ac:dyDescent="0.8">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="434" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A434">
         <v>666</v>
       </c>
@@ -16974,10 +16971,10 @@
         <v>54</v>
       </c>
       <c r="J434" t="s">
-        <v>724</v>
-      </c>
-    </row>
-    <row r="435" spans="1:10" x14ac:dyDescent="0.8">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="435" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A435">
         <v>667</v>
       </c>
@@ -17006,10 +17003,10 @@
         <v>15</v>
       </c>
       <c r="J435" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="436" spans="1:10" x14ac:dyDescent="0.8">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="436" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A436">
         <v>668</v>
       </c>
@@ -17038,10 +17035,10 @@
         <v>23</v>
       </c>
       <c r="J436" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="437" spans="1:10" x14ac:dyDescent="0.8">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="437" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A437">
         <v>669</v>
       </c>
@@ -17070,10 +17067,10 @@
         <v>39</v>
       </c>
       <c r="J437" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="438" spans="1:10" x14ac:dyDescent="0.8">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="438" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A438">
         <v>670</v>
       </c>
@@ -17102,10 +17099,10 @@
         <v>47</v>
       </c>
       <c r="J438" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="439" spans="1:10" x14ac:dyDescent="0.8">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="439" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A439">
         <v>671</v>
       </c>
@@ -17134,10 +17131,10 @@
         <v>47</v>
       </c>
       <c r="J439" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="440" spans="1:10" x14ac:dyDescent="0.8">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="440" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A440">
         <v>673</v>
       </c>
@@ -17166,10 +17163,10 @@
         <v>75</v>
       </c>
       <c r="J440" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="441" spans="1:10" x14ac:dyDescent="0.8">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="441" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A441">
         <v>675</v>
       </c>
@@ -17198,10 +17195,10 @@
         <v>4</v>
       </c>
       <c r="J441" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="442" spans="1:10" x14ac:dyDescent="0.8">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="442" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A442">
         <v>676</v>
       </c>
@@ -17230,10 +17227,10 @@
         <v>20</v>
       </c>
       <c r="J442" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="443" spans="1:10" x14ac:dyDescent="0.8">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="443" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A443">
         <v>677</v>
       </c>
@@ -17262,10 +17259,10 @@
         <v>32</v>
       </c>
       <c r="J443" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="444" spans="1:10" x14ac:dyDescent="0.8">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="444" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A444">
         <v>680</v>
       </c>
@@ -17294,10 +17291,10 @@
         <v>8</v>
       </c>
       <c r="J444" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="445" spans="1:10" x14ac:dyDescent="0.8">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="445" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A445">
         <v>681</v>
       </c>
@@ -17326,10 +17323,10 @@
         <v>41</v>
       </c>
       <c r="J445" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="446" spans="1:10" x14ac:dyDescent="0.8">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="446" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A446">
         <v>682</v>
       </c>
@@ -17358,10 +17355,10 @@
         <v>10</v>
       </c>
       <c r="J446" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="447" spans="1:10" x14ac:dyDescent="0.8">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="447" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A447">
         <v>684</v>
       </c>
@@ -17390,10 +17387,10 @@
         <v>43</v>
       </c>
       <c r="J447" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="448" spans="1:10" x14ac:dyDescent="0.8">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="448" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A448">
         <v>686</v>
       </c>
@@ -17422,10 +17419,10 @@
         <v>79</v>
       </c>
       <c r="J448" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="449" spans="1:10" x14ac:dyDescent="0.8">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="449" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A449">
         <v>687</v>
       </c>
@@ -17454,10 +17451,10 @@
         <v>60</v>
       </c>
       <c r="J449" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="450" spans="1:10" x14ac:dyDescent="0.8">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="450" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A450">
         <v>688</v>
       </c>
@@ -17486,10 +17483,10 @@
         <v>76</v>
       </c>
       <c r="J450" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="451" spans="1:10" x14ac:dyDescent="0.8">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="451" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A451">
         <v>689</v>
       </c>
@@ -17518,10 +17515,10 @@
         <v>74</v>
       </c>
       <c r="J451" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="452" spans="1:10" x14ac:dyDescent="0.8">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="452" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A452">
         <v>690</v>
       </c>
@@ -17550,10 +17547,10 @@
         <v>19</v>
       </c>
       <c r="J452" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="453" spans="1:10" x14ac:dyDescent="0.8">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="453" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A453">
         <v>691</v>
       </c>
@@ -17582,10 +17579,10 @@
         <v>63</v>
       </c>
       <c r="J453" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="454" spans="1:10" x14ac:dyDescent="0.8">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="454" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A454">
         <v>692</v>
       </c>
@@ -17614,10 +17611,10 @@
         <v>52</v>
       </c>
       <c r="J454" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="455" spans="1:10" x14ac:dyDescent="0.8">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="455" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A455">
         <v>693</v>
       </c>
@@ -17646,10 +17643,10 @@
         <v>60</v>
       </c>
       <c r="J455" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="456" spans="1:10" x14ac:dyDescent="0.8">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="456" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A456">
         <v>694</v>
       </c>
@@ -17678,10 +17675,10 @@
         <v>72</v>
       </c>
       <c r="J456" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="457" spans="1:10" x14ac:dyDescent="0.8">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="457" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A457">
         <v>696</v>
       </c>
@@ -17710,10 +17707,10 @@
         <v>77</v>
       </c>
       <c r="J457" t="s">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="458" spans="1:10" x14ac:dyDescent="0.8">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="458" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A458">
         <v>697</v>
       </c>
@@ -17742,10 +17739,10 @@
         <v>18</v>
       </c>
       <c r="J458" t="s">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="459" spans="1:10" x14ac:dyDescent="0.8">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="459" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A459">
         <v>698</v>
       </c>
@@ -17774,10 +17771,10 @@
         <v>22</v>
       </c>
       <c r="J459" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="460" spans="1:10" x14ac:dyDescent="0.8">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="460" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A460">
         <v>699</v>
       </c>
@@ -17806,10 +17803,10 @@
         <v>11</v>
       </c>
       <c r="J460" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="461" spans="1:10" x14ac:dyDescent="0.8">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="461" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A461">
         <v>700</v>
       </c>
@@ -17838,10 +17835,10 @@
         <v>63</v>
       </c>
       <c r="J461" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="462" spans="1:10" x14ac:dyDescent="0.8">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="462" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A462">
         <v>701</v>
       </c>
@@ -17870,10 +17867,10 @@
         <v>7</v>
       </c>
       <c r="J462" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="463" spans="1:10" x14ac:dyDescent="0.8">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="463" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A463">
         <v>702</v>
       </c>
@@ -17902,10 +17899,10 @@
         <v>75</v>
       </c>
       <c r="J463" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="464" spans="1:10" x14ac:dyDescent="0.8">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="464" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A464">
         <v>703</v>
       </c>
@@ -17934,10 +17931,10 @@
         <v>72</v>
       </c>
       <c r="J464" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="465" spans="1:10" x14ac:dyDescent="0.8">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="465" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A465">
         <v>704</v>
       </c>
@@ -17966,10 +17963,10 @@
         <v>65</v>
       </c>
       <c r="J465" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="466" spans="1:10" x14ac:dyDescent="0.8">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="466" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A466">
         <v>705</v>
       </c>
@@ -17998,10 +17995,10 @@
         <v>50</v>
       </c>
       <c r="J466" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="467" spans="1:10" x14ac:dyDescent="0.8">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="467" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A467">
         <v>706</v>
       </c>
@@ -18030,10 +18027,10 @@
         <v>6</v>
       </c>
       <c r="J467" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="468" spans="1:10" x14ac:dyDescent="0.8">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="468" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A468">
         <v>707</v>
       </c>
@@ -18062,10 +18059,10 @@
         <v>6</v>
       </c>
       <c r="J468" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="469" spans="1:10" x14ac:dyDescent="0.8">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="469" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A469">
         <v>708</v>
       </c>
@@ -18094,10 +18091,10 @@
         <v>11</v>
       </c>
       <c r="J469" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="470" spans="1:10" x14ac:dyDescent="0.8">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="470" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A470">
         <v>709</v>
       </c>
@@ -18126,10 +18123,10 @@
         <v>47</v>
       </c>
       <c r="J470" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="471" spans="1:10" x14ac:dyDescent="0.8">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="471" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A471">
         <v>710</v>
       </c>
@@ -18158,10 +18155,10 @@
         <v>55</v>
       </c>
       <c r="J471" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="472" spans="1:10" x14ac:dyDescent="0.8">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="472" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A472">
         <v>711</v>
       </c>
@@ -18190,10 +18187,10 @@
         <v>75</v>
       </c>
       <c r="J472" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="473" spans="1:10" x14ac:dyDescent="0.8">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="473" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A473">
         <v>712</v>
       </c>
@@ -18222,10 +18219,10 @@
         <v>79</v>
       </c>
       <c r="J473" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="474" spans="1:10" x14ac:dyDescent="0.8">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="474" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A474">
         <v>714</v>
       </c>
@@ -18254,10 +18251,10 @@
         <v>49</v>
       </c>
       <c r="J474" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="475" spans="1:10" x14ac:dyDescent="0.8">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="475" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A475">
         <v>715</v>
       </c>
@@ -18286,10 +18283,10 @@
         <v>65</v>
       </c>
       <c r="J475" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="476" spans="1:10" x14ac:dyDescent="0.8">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="476" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A476">
         <v>716</v>
       </c>
@@ -18318,10 +18315,10 @@
         <v>10</v>
       </c>
       <c r="J476" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="477" spans="1:10" x14ac:dyDescent="0.8">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="477" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A477">
         <v>717</v>
       </c>
@@ -18350,10 +18347,10 @@
         <v>22</v>
       </c>
       <c r="J477" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="478" spans="1:10" x14ac:dyDescent="0.8">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="478" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A478">
         <v>718</v>
       </c>
@@ -18382,10 +18379,10 @@
         <v>50</v>
       </c>
       <c r="J478" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="479" spans="1:10" x14ac:dyDescent="0.8">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="479" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A479">
         <v>719</v>
       </c>
@@ -18414,10 +18411,10 @@
         <v>78</v>
       </c>
       <c r="J479" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="480" spans="1:10" x14ac:dyDescent="0.8">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="480" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A480">
         <v>721</v>
       </c>
@@ -18446,10 +18443,10 @@
         <v>43</v>
       </c>
       <c r="J480" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="481" spans="1:10" x14ac:dyDescent="0.8">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="481" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A481">
         <v>722</v>
       </c>
@@ -18478,10 +18475,10 @@
         <v>75</v>
       </c>
       <c r="J481" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="482" spans="1:10" x14ac:dyDescent="0.8">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="482" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A482">
         <v>723</v>
       </c>
@@ -18510,10 +18507,10 @@
         <v>20</v>
       </c>
       <c r="J482" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="483" spans="1:10" x14ac:dyDescent="0.8">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="483" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A483">
         <v>724</v>
       </c>
@@ -18542,10 +18539,10 @@
         <v>18</v>
       </c>
       <c r="J483" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="484" spans="1:10" x14ac:dyDescent="0.8">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="484" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A484">
         <v>725</v>
       </c>
@@ -18574,10 +18571,10 @@
         <v>34</v>
       </c>
       <c r="J484" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="485" spans="1:10" x14ac:dyDescent="0.8">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="485" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A485">
         <v>726</v>
       </c>
@@ -18606,10 +18603,10 @@
         <v>58</v>
       </c>
       <c r="J485" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="486" spans="1:10" x14ac:dyDescent="0.8">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="486" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A486">
         <v>728</v>
       </c>
@@ -18638,10 +18635,10 @@
         <v>23</v>
       </c>
       <c r="J486" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="487" spans="1:10" x14ac:dyDescent="0.8">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="487" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A487">
         <v>729</v>
       </c>
@@ -18670,10 +18667,10 @@
         <v>75</v>
       </c>
       <c r="J487" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="488" spans="1:10" x14ac:dyDescent="0.8">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="488" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A488">
         <v>730</v>
       </c>
@@ -18702,10 +18699,10 @@
         <v>79</v>
       </c>
       <c r="J488" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="489" spans="1:10" x14ac:dyDescent="0.8">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="489" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A489">
         <v>732</v>
       </c>
@@ -18734,10 +18731,10 @@
         <v>72</v>
       </c>
       <c r="J489" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="490" spans="1:10" x14ac:dyDescent="0.8">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="490" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A490">
         <v>733</v>
       </c>
@@ -18766,10 +18763,10 @@
         <v>53</v>
       </c>
       <c r="J490" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="491" spans="1:10" x14ac:dyDescent="0.8">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="491" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A491">
         <v>735</v>
       </c>
@@ -18798,10 +18795,10 @@
         <v>2</v>
       </c>
       <c r="J491" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="492" spans="1:10" x14ac:dyDescent="0.8">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="492" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A492">
         <v>736</v>
       </c>
@@ -18830,10 +18827,10 @@
         <v>10</v>
       </c>
       <c r="J492" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="493" spans="1:10" x14ac:dyDescent="0.8">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="493" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A493">
         <v>737</v>
       </c>
@@ -18862,10 +18859,10 @@
         <v>42</v>
       </c>
       <c r="J493" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="494" spans="1:10" x14ac:dyDescent="0.8">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="494" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A494">
         <v>738</v>
       </c>
@@ -18894,10 +18891,10 @@
         <v>6</v>
       </c>
       <c r="J494" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="495" spans="1:10" x14ac:dyDescent="0.8">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="495" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A495">
         <v>739</v>
       </c>
@@ -18926,10 +18923,10 @@
         <v>78</v>
       </c>
       <c r="J495" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="496" spans="1:10" x14ac:dyDescent="0.8">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="496" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A496">
         <v>740</v>
       </c>
@@ -18958,10 +18955,10 @@
         <v>11</v>
       </c>
       <c r="J496" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="497" spans="1:10" x14ac:dyDescent="0.8">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="497" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A497">
         <v>741</v>
       </c>
@@ -18990,10 +18987,10 @@
         <v>23</v>
       </c>
       <c r="J497" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="498" spans="1:10" x14ac:dyDescent="0.8">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="498" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A498">
         <v>742</v>
       </c>
@@ -19022,10 +19019,10 @@
         <v>39</v>
       </c>
       <c r="J498" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="499" spans="1:10" x14ac:dyDescent="0.8">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="499" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A499">
         <v>743</v>
       </c>
@@ -19054,10 +19051,10 @@
         <v>55</v>
       </c>
       <c r="J499" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="500" spans="1:10" x14ac:dyDescent="0.8">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="500" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A500">
         <v>745</v>
       </c>
@@ -19086,10 +19083,10 @@
         <v>75</v>
       </c>
       <c r="J500" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="501" spans="1:10" x14ac:dyDescent="0.8">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="501" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A501">
         <v>746</v>
       </c>
@@ -19118,10 +19115,10 @@
         <v>79</v>
       </c>
       <c r="J501" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="502" spans="1:10" x14ac:dyDescent="0.8">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="502" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A502">
         <v>747</v>
       </c>
@@ -19150,10 +19147,10 @@
         <v>4</v>
       </c>
       <c r="J502" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="503" spans="1:10" x14ac:dyDescent="0.8">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="503" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A503">
         <v>749</v>
       </c>
@@ -19182,10 +19179,10 @@
         <v>48</v>
       </c>
       <c r="J503" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="504" spans="1:10" x14ac:dyDescent="0.8">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="504" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A504">
         <v>750</v>
       </c>
@@ -19214,10 +19211,10 @@
         <v>1</v>
       </c>
       <c r="J504" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="505" spans="1:10" x14ac:dyDescent="0.8">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="505" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A505">
         <v>751</v>
       </c>
@@ -19246,10 +19243,10 @@
         <v>42</v>
       </c>
       <c r="J505" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="506" spans="1:10" x14ac:dyDescent="0.8">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="506" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A506">
         <v>752</v>
       </c>
@@ -19278,10 +19275,10 @@
         <v>19</v>
       </c>
       <c r="J506" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="507" spans="1:10" x14ac:dyDescent="0.8">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="507" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A507">
         <v>754</v>
       </c>
@@ -19310,10 +19307,10 @@
         <v>75</v>
       </c>
       <c r="J507" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="508" spans="1:10" x14ac:dyDescent="0.8">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="508" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A508">
         <v>756</v>
       </c>
@@ -19342,10 +19339,10 @@
         <v>30</v>
       </c>
       <c r="J508" t="s">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="509" spans="1:10" x14ac:dyDescent="0.8">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="509" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A509">
         <v>757</v>
       </c>
@@ -19374,10 +19371,10 @@
         <v>78</v>
       </c>
       <c r="J509" t="s">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="510" spans="1:10" x14ac:dyDescent="0.8">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="510" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A510">
         <v>758</v>
       </c>
@@ -19406,10 +19403,10 @@
         <v>63</v>
       </c>
       <c r="J510" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="511" spans="1:10" x14ac:dyDescent="0.8">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="511" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A511">
         <v>759</v>
       </c>
@@ -19438,10 +19435,10 @@
         <v>79</v>
       </c>
       <c r="J511" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="512" spans="1:10" x14ac:dyDescent="0.8">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="512" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A512">
         <v>760</v>
       </c>
@@ -19470,10 +19467,10 @@
         <v>1</v>
       </c>
       <c r="J512" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="513" spans="1:10" x14ac:dyDescent="0.8">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="513" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A513">
         <v>761</v>
       </c>
@@ -19502,10 +19499,10 @@
         <v>49</v>
       </c>
       <c r="J513" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="514" spans="1:10" x14ac:dyDescent="0.8">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="514" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A514">
         <v>762</v>
       </c>
@@ -19534,10 +19531,10 @@
         <v>69</v>
       </c>
       <c r="J514" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="515" spans="1:10" x14ac:dyDescent="0.8">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="515" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A515">
         <v>763</v>
       </c>
@@ -19566,10 +19563,10 @@
         <v>22</v>
       </c>
       <c r="J515" t="s">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="516" spans="1:10" x14ac:dyDescent="0.8">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="516" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A516">
         <v>764</v>
       </c>
@@ -19598,10 +19595,10 @@
         <v>50</v>
       </c>
       <c r="J516" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="517" spans="1:10" x14ac:dyDescent="0.8">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="517" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A517">
         <v>765</v>
       </c>
@@ -19630,10 +19627,10 @@
         <v>6</v>
       </c>
       <c r="J517" t="s">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="518" spans="1:10" x14ac:dyDescent="0.8">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="518" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A518">
         <v>766</v>
       </c>
@@ -19662,10 +19659,10 @@
         <v>6</v>
       </c>
       <c r="J518" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="519" spans="1:10" x14ac:dyDescent="0.8">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="519" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A519">
         <v>768</v>
       </c>
@@ -19694,10 +19691,10 @@
         <v>78</v>
       </c>
       <c r="J519" t="s">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="520" spans="1:10" x14ac:dyDescent="0.8">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="520" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A520">
         <v>769</v>
       </c>
@@ -19726,10 +19723,10 @@
         <v>75</v>
       </c>
       <c r="J520" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="521" spans="1:10" x14ac:dyDescent="0.8">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="521" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A521">
         <v>770</v>
       </c>
@@ -19758,10 +19755,10 @@
         <v>20</v>
       </c>
       <c r="J521" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="522" spans="1:10" x14ac:dyDescent="0.8">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="522" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A522">
         <v>771</v>
       </c>
@@ -19790,10 +19787,10 @@
         <v>60</v>
       </c>
       <c r="J522" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="523" spans="1:10" x14ac:dyDescent="0.8">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="523" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A523">
         <v>772</v>
       </c>
@@ -19822,10 +19819,10 @@
         <v>1</v>
       </c>
       <c r="J523" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="524" spans="1:10" x14ac:dyDescent="0.8">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="524" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A524">
         <v>773</v>
       </c>
@@ -19854,10 +19851,10 @@
         <v>21</v>
       </c>
       <c r="J524" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="525" spans="1:10" x14ac:dyDescent="0.8">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="525" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A525">
         <v>774</v>
       </c>
@@ -19886,10 +19883,10 @@
         <v>45</v>
       </c>
       <c r="J525" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="526" spans="1:10" x14ac:dyDescent="0.8">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="526" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A526">
         <v>775</v>
       </c>
@@ -19918,10 +19915,10 @@
         <v>65</v>
       </c>
       <c r="J526" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="527" spans="1:10" x14ac:dyDescent="0.8">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="527" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A527">
         <v>776</v>
       </c>
@@ -19950,10 +19947,10 @@
         <v>22</v>
       </c>
       <c r="J527" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="528" spans="1:10" x14ac:dyDescent="0.8">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="528" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A528">
         <v>777</v>
       </c>
@@ -19982,10 +19979,10 @@
         <v>30</v>
       </c>
       <c r="J528" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="529" spans="1:10" x14ac:dyDescent="0.8">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="529" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A529">
         <v>778</v>
       </c>
@@ -20014,10 +20011,10 @@
         <v>23</v>
       </c>
       <c r="J529" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="530" spans="1:10" x14ac:dyDescent="0.8">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="530" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A530">
         <v>779</v>
       </c>
@@ -20046,10 +20043,10 @@
         <v>55</v>
       </c>
       <c r="J530" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="531" spans="1:10" x14ac:dyDescent="0.8">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="531" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A531">
         <v>780</v>
       </c>
@@ -20078,10 +20075,10 @@
         <v>20</v>
       </c>
       <c r="J531" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="532" spans="1:10" x14ac:dyDescent="0.8">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="532" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A532">
         <v>782</v>
       </c>
@@ -20110,10 +20107,10 @@
         <v>13</v>
       </c>
       <c r="J532" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="533" spans="1:10" x14ac:dyDescent="0.8">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="533" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A533">
         <v>783</v>
       </c>
@@ -20142,10 +20139,10 @@
         <v>25</v>
       </c>
       <c r="J533" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="534" spans="1:10" x14ac:dyDescent="0.8">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="534" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A534">
         <v>784</v>
       </c>
@@ -20174,10 +20171,10 @@
         <v>29</v>
       </c>
       <c r="J534" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="535" spans="1:10" x14ac:dyDescent="0.8">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="535" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A535">
         <v>785</v>
       </c>
@@ -20206,10 +20203,10 @@
         <v>37</v>
       </c>
       <c r="J535" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="536" spans="1:10" x14ac:dyDescent="0.8">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="536" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A536">
         <v>786</v>
       </c>
@@ -20238,10 +20235,10 @@
         <v>57</v>
       </c>
       <c r="J536" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="537" spans="1:10" x14ac:dyDescent="0.8">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="537" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A537">
         <v>787</v>
       </c>
@@ -20270,10 +20267,10 @@
         <v>2</v>
       </c>
       <c r="J537" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="538" spans="1:10" x14ac:dyDescent="0.8">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="538" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A538">
         <v>789</v>
       </c>
@@ -20302,10 +20299,10 @@
         <v>11</v>
       </c>
       <c r="J538" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="539" spans="1:10" x14ac:dyDescent="0.8">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="539" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A539">
         <v>790</v>
       </c>
@@ -20334,10 +20331,10 @@
         <v>23</v>
       </c>
       <c r="J539" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="540" spans="1:10" x14ac:dyDescent="0.8">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="540" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A540">
         <v>792</v>
       </c>
@@ -20366,10 +20363,10 @@
         <v>43</v>
       </c>
       <c r="J540" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="541" spans="1:10" x14ac:dyDescent="0.8">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="541" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A541">
         <v>794</v>
       </c>
@@ -20398,10 +20395,10 @@
         <v>51</v>
       </c>
       <c r="J541" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="542" spans="1:10" x14ac:dyDescent="0.8">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="542" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A542">
         <v>795</v>
       </c>
@@ -20430,10 +20427,10 @@
         <v>55</v>
       </c>
       <c r="J542" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="543" spans="1:10" x14ac:dyDescent="0.8">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="543" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A543">
         <v>797</v>
       </c>
@@ -20462,10 +20459,10 @@
         <v>60</v>
       </c>
       <c r="J543" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="544" spans="1:10" x14ac:dyDescent="0.8">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="544" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A544">
         <v>799</v>
       </c>
@@ -20494,10 +20491,10 @@
         <v>72</v>
       </c>
       <c r="J544" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="545" spans="1:10" x14ac:dyDescent="0.8">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="545" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A545">
         <v>800</v>
       </c>
@@ -20526,10 +20523,10 @@
         <v>76</v>
       </c>
       <c r="J545" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="546" spans="1:10" x14ac:dyDescent="0.8">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="546" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A546">
         <v>801</v>
       </c>
@@ -20558,10 +20555,10 @@
         <v>8</v>
       </c>
       <c r="J546" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="547" spans="1:10" x14ac:dyDescent="0.8">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="547" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A547">
         <v>802</v>
       </c>
@@ -20590,10 +20587,10 @@
         <v>1</v>
       </c>
       <c r="J547" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="548" spans="1:10" x14ac:dyDescent="0.8">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="548" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A548">
         <v>803</v>
       </c>
@@ -20622,10 +20619,10 @@
         <v>5</v>
       </c>
       <c r="J548" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="549" spans="1:10" x14ac:dyDescent="0.8">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="549" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A549">
         <v>804</v>
       </c>
@@ -20654,10 +20651,10 @@
         <v>13</v>
       </c>
       <c r="J549" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="550" spans="1:10" x14ac:dyDescent="0.8">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="550" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A550">
         <v>805</v>
       </c>
@@ -20686,10 +20683,10 @@
         <v>57</v>
       </c>
       <c r="J550" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="551" spans="1:10" x14ac:dyDescent="0.8">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="551" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A551">
         <v>808</v>
       </c>
@@ -20718,10 +20715,10 @@
         <v>6</v>
       </c>
       <c r="J551" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="552" spans="1:10" x14ac:dyDescent="0.8">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="552" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A552">
         <v>809</v>
       </c>
@@ -20750,10 +20747,10 @@
         <v>74</v>
       </c>
       <c r="J552" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="553" spans="1:10" x14ac:dyDescent="0.8">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="553" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A553">
         <v>810</v>
       </c>
@@ -20782,10 +20779,10 @@
         <v>15</v>
       </c>
       <c r="J553" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="554" spans="1:10" x14ac:dyDescent="0.8">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="554" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A554">
         <v>811</v>
       </c>
@@ -20814,10 +20811,10 @@
         <v>27</v>
       </c>
       <c r="J554" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="555" spans="1:10" x14ac:dyDescent="0.8">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="555" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A555">
         <v>813</v>
       </c>
@@ -20846,10 +20843,10 @@
         <v>43</v>
       </c>
       <c r="J555" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="556" spans="1:10" x14ac:dyDescent="0.8">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="556" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A556">
         <v>814</v>
       </c>
@@ -20878,10 +20875,10 @@
         <v>63</v>
       </c>
       <c r="J556" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="557" spans="1:10" x14ac:dyDescent="0.8">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="557" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A557">
         <v>816</v>
       </c>
@@ -20910,10 +20907,10 @@
         <v>20</v>
       </c>
       <c r="J557" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="558" spans="1:10" x14ac:dyDescent="0.8">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="558" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A558">
         <v>817</v>
       </c>
@@ -20942,10 +20939,10 @@
         <v>8</v>
       </c>
       <c r="J558" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="559" spans="1:10" x14ac:dyDescent="0.8">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="559" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A559">
         <v>818</v>
       </c>
@@ -20974,10 +20971,10 @@
         <v>1</v>
       </c>
       <c r="J559" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="560" spans="1:10" x14ac:dyDescent="0.8">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="560" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A560">
         <v>819</v>
       </c>
@@ -21006,10 +21003,10 @@
         <v>21</v>
       </c>
       <c r="J560" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="561" spans="1:10" x14ac:dyDescent="0.8">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="561" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A561">
         <v>820</v>
       </c>
@@ -21038,10 +21035,10 @@
         <v>21</v>
       </c>
       <c r="J561" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="562" spans="1:10" x14ac:dyDescent="0.8">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="562" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A562">
         <v>822</v>
       </c>
@@ -21070,10 +21067,10 @@
         <v>61</v>
       </c>
       <c r="J562" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="563" spans="1:10" x14ac:dyDescent="0.8">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="563" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A563">
         <v>824</v>
       </c>
@@ -21102,10 +21099,10 @@
         <v>9</v>
       </c>
       <c r="J563" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="564" spans="1:10" x14ac:dyDescent="0.8">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="564" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A564">
         <v>826</v>
       </c>
@@ -21134,10 +21131,10 @@
         <v>46</v>
       </c>
       <c r="J564" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="565" spans="1:10" x14ac:dyDescent="0.8">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="565" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A565">
         <v>828</v>
       </c>
@@ -21166,10 +21163,10 @@
         <v>71</v>
       </c>
       <c r="J565" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="566" spans="1:10" x14ac:dyDescent="0.8">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="566" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A566">
         <v>829</v>
       </c>
@@ -21198,10 +21195,10 @@
         <v>79</v>
       </c>
       <c r="J566" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="567" spans="1:10" x14ac:dyDescent="0.8">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="567" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A567">
         <v>830</v>
       </c>
@@ -21230,10 +21227,10 @@
         <v>48</v>
       </c>
       <c r="J567" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="568" spans="1:10" x14ac:dyDescent="0.8">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="568" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A568">
         <v>831</v>
       </c>
@@ -21262,10 +21259,10 @@
         <v>60</v>
       </c>
       <c r="J568" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="569" spans="1:10" x14ac:dyDescent="0.8">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="569" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A569">
         <v>832</v>
       </c>
@@ -21294,10 +21291,10 @@
         <v>1</v>
       </c>
       <c r="J569" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="570" spans="1:10" x14ac:dyDescent="0.8">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="570" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A570">
         <v>833</v>
       </c>
@@ -21326,10 +21323,10 @@
         <v>1</v>
       </c>
       <c r="J570" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="571" spans="1:10" x14ac:dyDescent="0.8">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="571" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A571">
         <v>834</v>
       </c>
@@ -21358,10 +21355,10 @@
         <v>29</v>
       </c>
       <c r="J571" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="572" spans="1:10" x14ac:dyDescent="0.8">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="572" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A572">
         <v>835</v>
       </c>
@@ -21390,10 +21387,10 @@
         <v>77</v>
       </c>
       <c r="J572" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="573" spans="1:10" x14ac:dyDescent="0.8">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="573" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A573">
         <v>837</v>
       </c>
@@ -21422,10 +21419,10 @@
         <v>27</v>
       </c>
       <c r="J573" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="574" spans="1:10" x14ac:dyDescent="0.8">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="574" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A574">
         <v>838</v>
       </c>
@@ -21454,10 +21451,10 @@
         <v>75</v>
       </c>
       <c r="J574" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="575" spans="1:10" x14ac:dyDescent="0.8">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="575" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A575">
         <v>839</v>
       </c>
@@ -21486,10 +21483,10 @@
         <v>60</v>
       </c>
       <c r="J575" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="576" spans="1:10" x14ac:dyDescent="0.8">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="576" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A576">
         <v>840</v>
       </c>
@@ -21518,39 +21515,7 @@
         <v>72</v>
       </c>
       <c r="J576" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="577" spans="1:10" x14ac:dyDescent="0.8">
-      <c r="A577">
-        <v>842</v>
-      </c>
-      <c r="B577" t="s">
-        <v>631</v>
-      </c>
-      <c r="C577" t="s">
-        <v>14</v>
-      </c>
-      <c r="D577" t="s">
-        <v>15</v>
-      </c>
-      <c r="E577">
-        <v>2020</v>
-      </c>
-      <c r="F577" t="s">
-        <v>20</v>
-      </c>
-      <c r="G577">
-        <v>0</v>
-      </c>
-      <c r="H577">
-        <v>0</v>
-      </c>
-      <c r="I577">
-        <v>80</v>
-      </c>
-      <c r="J577" t="s">
-        <v>707</v>
+        <v>644</v>
       </c>
     </row>
   </sheetData>
